--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1188"/>
+  <dimension ref="A1:G1102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29122,10 +29122,8 @@
         </is>
       </c>
       <c r="F1055" t="inlineStr"/>
-      <c r="G1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -29151,10 +29149,8 @@
       </c>
       <c r="E1056" t="inlineStr"/>
       <c r="F1056" t="inlineStr"/>
-      <c r="G1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -29180,10 +29176,8 @@
       </c>
       <c r="E1057" t="inlineStr"/>
       <c r="F1057" t="inlineStr"/>
-      <c r="G1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -29209,10 +29203,8 @@
       </c>
       <c r="E1058" t="inlineStr"/>
       <c r="F1058" t="inlineStr"/>
-      <c r="G1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -29238,10 +29230,8 @@
       </c>
       <c r="E1059" t="inlineStr"/>
       <c r="F1059" t="inlineStr"/>
-      <c r="G1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -29267,10 +29257,8 @@
       </c>
       <c r="E1060" t="inlineStr"/>
       <c r="F1060" t="inlineStr"/>
-      <c r="G1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -29300,10 +29288,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1061" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1061" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1062">
@@ -29333,10 +29319,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="G1062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -29366,10 +29350,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -29399,10 +29381,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="G1064" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1064" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1065">
@@ -29432,10 +29412,8 @@
           <t>319.3</t>
         </is>
       </c>
-      <c r="G1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -29461,10 +29439,8 @@
           <t>320</t>
         </is>
       </c>
-      <c r="G1066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -29490,10 +29466,8 @@
         </is>
       </c>
       <c r="F1067" t="inlineStr"/>
-      <c r="G1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -29519,10 +29493,8 @@
         </is>
       </c>
       <c r="F1068" t="inlineStr"/>
-      <c r="G1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -29544,10 +29516,8 @@
       </c>
       <c r="E1069" t="inlineStr"/>
       <c r="F1069" t="inlineStr"/>
-      <c r="G1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -29569,10 +29539,8 @@
       </c>
       <c r="E1070" t="inlineStr"/>
       <c r="F1070" t="inlineStr"/>
-      <c r="G1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -29594,10 +29562,8 @@
       </c>
       <c r="E1071" t="inlineStr"/>
       <c r="F1071" t="inlineStr"/>
-      <c r="G1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -29623,10 +29589,8 @@
         </is>
       </c>
       <c r="F1072" t="inlineStr"/>
-      <c r="G1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -29648,10 +29612,8 @@
       </c>
       <c r="E1073" t="inlineStr"/>
       <c r="F1073" t="inlineStr"/>
-      <c r="G1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -29673,10 +29635,8 @@
       </c>
       <c r="E1074" t="inlineStr"/>
       <c r="F1074" t="inlineStr"/>
-      <c r="G1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -29698,10 +29658,8 @@
       </c>
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
-      <c r="G1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -29723,10 +29681,8 @@
       </c>
       <c r="E1076" t="inlineStr"/>
       <c r="F1076" t="inlineStr"/>
-      <c r="G1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -29748,10 +29704,8 @@
       </c>
       <c r="E1077" t="inlineStr"/>
       <c r="F1077" t="inlineStr"/>
-      <c r="G1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -29781,10 +29735,8 @@
           <t>$-290.0B</t>
         </is>
       </c>
-      <c r="G1078" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1078" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1079">
@@ -29827,10 +29779,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1080" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -29860,10 +29810,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1081" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -29893,10 +29841,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -29926,10 +29872,8 @@
           <t>1910.0K</t>
         </is>
       </c>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -29959,10 +29903,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -29988,10 +29930,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1085" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1086">
@@ -30017,10 +29957,8 @@
           <t>148.1</t>
         </is>
       </c>
-      <c r="G1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -30046,10 +29984,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1087" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1088">
@@ -30075,10 +30011,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1088" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1089">
@@ -30108,10 +30042,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -30137,10 +30069,8 @@
         </is>
       </c>
       <c r="F1090" t="inlineStr"/>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -30162,10 +30092,8 @@
       </c>
       <c r="E1091" t="inlineStr"/>
       <c r="F1091" t="inlineStr"/>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -30187,10 +30115,8 @@
       </c>
       <c r="E1092" t="inlineStr"/>
       <c r="F1092" t="inlineStr"/>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -30212,10 +30138,8 @@
       </c>
       <c r="E1093" t="inlineStr"/>
       <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -30237,10 +30161,8 @@
       </c>
       <c r="E1094" t="inlineStr"/>
       <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -30262,40 +30184,46 @@
       </c>
       <c r="E1095" t="inlineStr"/>
       <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>30-Year Mortgage RateMAR/20</t>
+        </is>
+      </c>
       <c r="C1096" t="inlineStr"/>
       <c r="D1096" t="inlineStr"/>
       <c r="E1096" t="inlineStr"/>
       <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/12</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr"/>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>$6.76T</t>
+          <t>2.243%</t>
         </is>
       </c>
       <c r="E1097" t="inlineStr"/>
@@ -30309,59 +30237,31 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1098" t="inlineStr">
-        <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
-        </is>
-      </c>
+          <t>Friday March 21 2025</t>
+        </is>
+      </c>
+      <c r="B1098" t="inlineStr"/>
       <c r="C1098" t="inlineStr"/>
-      <c r="D1098" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1098" t="inlineStr">
-        <is>
-          <t>63.4</t>
-        </is>
-      </c>
-      <c r="F1098" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
-      <c r="G1098" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
+      <c r="D1098" t="inlineStr"/>
+      <c r="E1098" t="inlineStr"/>
+      <c r="F1098" t="inlineStr"/>
+      <c r="G1098" t="inlineStr"/>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
+          <t>Fed Balance SheetMAR/19</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr"/>
-      <c r="D1099" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="D1099" t="inlineStr"/>
       <c r="E1099" t="inlineStr"/>
-      <c r="F1099" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr">
         <is>
           <t>3</t>
@@ -30371,30 +30271,18 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
+          <t>Baker Hughes Oil Rig CountMAR/21</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr"/>
-      <c r="D1100" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E1100" t="inlineStr">
-        <is>
-          <t>64.3</t>
-        </is>
-      </c>
-      <c r="F1100" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
+      <c r="D1100" t="inlineStr"/>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr">
         <is>
           <t>3</t>
@@ -30404,30 +30292,18 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAR</t>
+          <t>Baker Hughes Total Rigs CountMAR/21</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr"/>
-      <c r="D1101" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1101" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="F1101" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+      <c r="D1101" t="inlineStr"/>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr">
         <is>
           <t>3</t>
@@ -30437,2085 +30313,15 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1102" t="inlineStr">
-        <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
+          <t>Saturday March 22 2025</t>
+        </is>
+      </c>
+      <c r="B1102" t="inlineStr"/>
       <c r="C1102" t="inlineStr"/>
-      <c r="D1102" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="D1102" t="inlineStr"/>
       <c r="E1102" t="inlineStr"/>
-      <c r="F1102" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="G1102" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1103">
-      <c r="A1103" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1103" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C1103" t="inlineStr"/>
-      <c r="D1103" t="inlineStr">
-        <is>
-          <t>486</t>
-        </is>
-      </c>
-      <c r="E1103" t="inlineStr"/>
-      <c r="F1103" t="inlineStr"/>
-      <c r="G1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1104">
-      <c r="A1104" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1104" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C1104" t="inlineStr"/>
-      <c r="D1104" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="E1104" t="inlineStr"/>
-      <c r="F1104" t="inlineStr"/>
-      <c r="G1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1105">
-      <c r="A1105" t="inlineStr">
-        <is>
-          <t>Saturday March 15 2025</t>
-        </is>
-      </c>
-      <c r="B1105" t="inlineStr"/>
-      <c r="C1105" t="inlineStr"/>
-      <c r="D1105" t="inlineStr"/>
-      <c r="E1105" t="inlineStr"/>
-      <c r="F1105" t="inlineStr"/>
-      <c r="G1105" t="inlineStr"/>
-    </row>
-    <row r="1106">
-      <c r="A1106" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B1106" t="inlineStr"/>
-      <c r="C1106" t="inlineStr"/>
-      <c r="D1106" t="inlineStr"/>
-      <c r="E1106" t="inlineStr"/>
-      <c r="F1106" t="inlineStr"/>
-      <c r="G1106" t="inlineStr"/>
-    </row>
-    <row r="1107">
-      <c r="A1107" t="inlineStr">
-        <is>
-          <t>Monday March 17 2025</t>
-        </is>
-      </c>
-      <c r="B1107" t="inlineStr"/>
-      <c r="C1107" t="inlineStr"/>
-      <c r="D1107" t="inlineStr"/>
-      <c r="E1107" t="inlineStr"/>
-      <c r="F1107" t="inlineStr"/>
-      <c r="G1107" t="inlineStr"/>
-    </row>
-    <row r="1108">
-      <c r="A1108" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1108" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1108" t="inlineStr"/>
-      <c r="D1108" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E1108" t="inlineStr"/>
-      <c r="F1108" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1109">
-      <c r="A1109" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1109" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1109" t="inlineStr"/>
-      <c r="D1109" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="E1109" t="inlineStr"/>
-      <c r="F1109" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G1109" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1110" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1110" t="inlineStr"/>
-      <c r="D1110" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1111">
-      <c r="A1111" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1111" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1111" t="inlineStr"/>
-      <c r="D1111" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1111" t="inlineStr"/>
-      <c r="F1111" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1112">
-      <c r="A1112" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1112" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1112" t="inlineStr"/>
-      <c r="D1112" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E1112" t="inlineStr"/>
-      <c r="F1112" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1113">
-      <c r="A1113" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1113" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1113" t="inlineStr"/>
-      <c r="D1113" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1114">
-      <c r="A1114" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1114" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMJAN</t>
-        </is>
-      </c>
-      <c r="C1114" t="inlineStr"/>
-      <c r="D1114" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1115">
-      <c r="A1115" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1115" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1115" t="inlineStr"/>
-      <c r="D1115" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G1115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1116">
-      <c r="A1116" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1116" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C1116" t="inlineStr"/>
-      <c r="D1116" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1116" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1116" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1117">
-      <c r="A1117" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1117" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1117" t="inlineStr"/>
-      <c r="D1117" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E1117" t="inlineStr"/>
-      <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1118">
-      <c r="A1118" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1118" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1118" t="inlineStr"/>
-      <c r="D1118" t="inlineStr">
-        <is>
-          <t>4.075%</t>
-        </is>
-      </c>
-      <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1119">
-      <c r="A1119" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1119" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1119" t="inlineStr"/>
-      <c r="D1119" t="inlineStr"/>
-      <c r="E1119" t="inlineStr"/>
-      <c r="F1119" t="inlineStr"/>
-      <c r="G1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>Tuesday March 18 2025</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr"/>
-      <c r="C1120" t="inlineStr"/>
-      <c r="D1120" t="inlineStr"/>
-      <c r="E1120" t="inlineStr"/>
-      <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1121" t="inlineStr">
-        <is>
-          <t>Building Permits PrelFEB</t>
-        </is>
-      </c>
-      <c r="C1121" t="inlineStr"/>
-      <c r="D1121" t="inlineStr">
-        <is>
-          <t>1.473M</t>
-        </is>
-      </c>
-      <c r="E1121" t="inlineStr"/>
-      <c r="F1121" t="inlineStr">
-        <is>
-          <t>1.471M</t>
-        </is>
-      </c>
-      <c r="G1121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1122">
-      <c r="A1122" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1122" t="inlineStr">
-        <is>
-          <t>Housing StartsFEB</t>
-        </is>
-      </c>
-      <c r="C1122" t="inlineStr"/>
-      <c r="D1122" t="inlineStr">
-        <is>
-          <t>1.366M</t>
-        </is>
-      </c>
-      <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr">
-        <is>
-          <t>1.34M</t>
-        </is>
-      </c>
-      <c r="G1122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1123" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelFEB</t>
-        </is>
-      </c>
-      <c r="C1123" t="inlineStr"/>
-      <c r="D1123" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1124" t="inlineStr">
-        <is>
-          <t>Export Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1124" t="inlineStr"/>
-      <c r="D1124" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G1124" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1125" t="inlineStr"/>
-      <c r="D1125" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="G1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1126" t="inlineStr">
-        <is>
-          <t>Import Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1126" t="inlineStr"/>
-      <c r="D1126" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1126" t="inlineStr"/>
-      <c r="F1126" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr">
-        <is>
-          <t>Export Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1127" t="inlineStr"/>
-      <c r="D1127" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E1127" t="inlineStr"/>
-      <c r="F1127" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1128" t="inlineStr">
-        <is>
-          <t>Import Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1128" t="inlineStr"/>
-      <c r="D1128" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E1128" t="inlineStr"/>
-      <c r="F1128" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1129" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/15</t>
-        </is>
-      </c>
-      <c r="C1129" t="inlineStr"/>
-      <c r="D1129" t="inlineStr">
-        <is>
-          <t>5.7%</t>
-        </is>
-      </c>
-      <c r="E1129" t="inlineStr"/>
-      <c r="F1129" t="inlineStr"/>
-      <c r="G1129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1130" t="inlineStr"/>
-      <c r="D1130" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1130" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1131" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationFEB</t>
-        </is>
-      </c>
-      <c r="C1131" t="inlineStr"/>
-      <c r="D1131" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="G1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1132" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1132" t="inlineStr"/>
-      <c r="D1132" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1133" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1133" t="inlineStr"/>
-      <c r="D1133" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1134" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1134" t="inlineStr"/>
-      <c r="D1134" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1135">
-      <c r="A1135" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1135" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1135" t="inlineStr"/>
-      <c r="D1135" t="inlineStr">
-        <is>
-          <t>4.05%</t>
-        </is>
-      </c>
-      <c r="E1135" t="inlineStr"/>
-      <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1136">
-      <c r="A1136" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1136" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr">
-        <is>
-          <t>4.83%</t>
-        </is>
-      </c>
-      <c r="E1136" t="inlineStr"/>
-      <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1137">
-      <c r="A1137" t="inlineStr">
-        <is>
-          <t>Wednesday March 19 2025</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr"/>
-      <c r="C1137" t="inlineStr"/>
-      <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr"/>
-      <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1138" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr">
-        <is>
-          <t>4.247M</t>
-        </is>
-      </c>
-      <c r="E1138" t="inlineStr"/>
-      <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/14</t>
-        </is>
-      </c>
-      <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr"/>
-      <c r="E1139" t="inlineStr"/>
-      <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/14</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr"/>
-      <c r="E1140" t="inlineStr"/>
-      <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr"/>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr"/>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr"/>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr"/>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr"/>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr"/>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr"/>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr"/>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr"/>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr"/>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr"/>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr"/>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1153" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1153" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr">
-        <is>
-          <t>FOMC Economic Projections</t>
-        </is>
-      </c>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr"/>
-      <c r="E1154" t="inlineStr"/>
-      <c r="F1154" t="inlineStr"/>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 1st Yr</t>
-        </is>
-      </c>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 2nd Yr</t>
-        </is>
-      </c>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Current</t>
-        </is>
-      </c>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Longer</t>
-        </is>
-      </c>
-      <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr"/>
-      <c r="B1159" t="inlineStr">
-        <is>
-          <t>International Monetary Market (IMM) Date</t>
-        </is>
-      </c>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr"/>
-      <c r="E1159" t="inlineStr"/>
-      <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr">
-        <is>
-          <t>Thursday March 20 2025</t>
-        </is>
-      </c>
-      <c r="B1160" t="inlineStr"/>
-      <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr"/>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1162" t="inlineStr"/>
-      <c r="D1162" t="inlineStr">
-        <is>
-          <t>$72B</t>
-        </is>
-      </c>
-      <c r="E1162" t="inlineStr"/>
-      <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN</t>
-        </is>
-      </c>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>$-49.7B</t>
-        </is>
-      </c>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>$87.1B</t>
-        </is>
-      </c>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr">
-        <is>
-          <t>$-310.9B</t>
-        </is>
-      </c>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr">
-        <is>
-          <t>$ -390.0B</t>
-        </is>
-      </c>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/15</t>
-        </is>
-      </c>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr"/>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr"/>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr">
-        <is>
-          <t>18.1</t>
-        </is>
-      </c>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr"/>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr"/>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/15</t>
-        </is>
-      </c>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAR</t>
-        </is>
-      </c>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAR</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAR</t>
-        </is>
-      </c>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr">
-        <is>
-          <t>21.9</t>
-        </is>
-      </c>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAR</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>40.50</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>Existing Home SalesFEB</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>4.08M</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr">
-        <is>
-          <t>4.05M</t>
-        </is>
-      </c>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr"/>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr"/>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr">
-        <is>
-          <t>2.243%</t>
-        </is>
-      </c>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>Friday March 21 2025</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr"/>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr"/>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr"/>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/19</t>
-        </is>
-      </c>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>Saturday March 22 2025</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr"/>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr"/>
+      <c r="F1102" t="inlineStr"/>
+      <c r="G1102" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1189"/>
+  <dimension ref="A1:G1103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29122,10 +29122,8 @@
         </is>
       </c>
       <c r="F1055" t="inlineStr"/>
-      <c r="G1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -29151,10 +29149,8 @@
       </c>
       <c r="E1056" t="inlineStr"/>
       <c r="F1056" t="inlineStr"/>
-      <c r="G1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -29180,10 +29176,8 @@
       </c>
       <c r="E1057" t="inlineStr"/>
       <c r="F1057" t="inlineStr"/>
-      <c r="G1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -29209,10 +29203,8 @@
       </c>
       <c r="E1058" t="inlineStr"/>
       <c r="F1058" t="inlineStr"/>
-      <c r="G1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -29238,10 +29230,8 @@
       </c>
       <c r="E1059" t="inlineStr"/>
       <c r="F1059" t="inlineStr"/>
-      <c r="G1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -29267,10 +29257,8 @@
       </c>
       <c r="E1060" t="inlineStr"/>
       <c r="F1060" t="inlineStr"/>
-      <c r="G1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -29304,10 +29292,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1061" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1061" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1062">
@@ -29341,10 +29327,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="G1062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -29378,10 +29362,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -29415,10 +29397,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="G1064" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1064" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1065">
@@ -29452,10 +29432,8 @@
           <t>319.3</t>
         </is>
       </c>
-      <c r="G1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -29485,10 +29463,8 @@
           <t>320</t>
         </is>
       </c>
-      <c r="G1066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -29518,10 +29494,8 @@
         </is>
       </c>
       <c r="F1067" t="inlineStr"/>
-      <c r="G1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -29551,10 +29525,8 @@
         </is>
       </c>
       <c r="F1068" t="inlineStr"/>
-      <c r="G1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -29580,10 +29552,8 @@
       </c>
       <c r="E1069" t="inlineStr"/>
       <c r="F1069" t="inlineStr"/>
-      <c r="G1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -29609,10 +29579,8 @@
       </c>
       <c r="E1070" t="inlineStr"/>
       <c r="F1070" t="inlineStr"/>
-      <c r="G1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -29638,10 +29606,8 @@
       </c>
       <c r="E1071" t="inlineStr"/>
       <c r="F1071" t="inlineStr"/>
-      <c r="G1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -29671,10 +29637,8 @@
         </is>
       </c>
       <c r="F1072" t="inlineStr"/>
-      <c r="G1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -29700,10 +29664,8 @@
       </c>
       <c r="E1073" t="inlineStr"/>
       <c r="F1073" t="inlineStr"/>
-      <c r="G1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -29729,10 +29691,8 @@
       </c>
       <c r="E1074" t="inlineStr"/>
       <c r="F1074" t="inlineStr"/>
-      <c r="G1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -29758,10 +29718,8 @@
       </c>
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
-      <c r="G1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -29787,10 +29745,8 @@
       </c>
       <c r="E1076" t="inlineStr"/>
       <c r="F1076" t="inlineStr"/>
-      <c r="G1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -29816,10 +29772,8 @@
       </c>
       <c r="E1077" t="inlineStr"/>
       <c r="F1077" t="inlineStr"/>
-      <c r="G1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -29853,10 +29807,8 @@
           <t>$-290.0B</t>
         </is>
       </c>
-      <c r="G1078" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1078" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1079">
@@ -29899,10 +29851,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1080" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -29932,10 +29882,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1081" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -29965,10 +29913,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -29998,10 +29944,8 @@
           <t>1910.0K</t>
         </is>
       </c>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -30031,10 +29975,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -30060,10 +30002,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1085" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1086">
@@ -30089,10 +30029,8 @@
           <t>148.1</t>
         </is>
       </c>
-      <c r="G1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -30118,10 +30056,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1087" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1088">
@@ -30147,10 +30083,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1088" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1089">
@@ -30180,10 +30114,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -30209,10 +30141,8 @@
         </is>
       </c>
       <c r="F1090" t="inlineStr"/>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -30234,10 +30164,8 @@
       </c>
       <c r="E1091" t="inlineStr"/>
       <c r="F1091" t="inlineStr"/>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -30259,10 +30187,8 @@
       </c>
       <c r="E1092" t="inlineStr"/>
       <c r="F1092" t="inlineStr"/>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -30284,10 +30210,8 @@
       </c>
       <c r="E1093" t="inlineStr"/>
       <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -30309,10 +30233,8 @@
       </c>
       <c r="E1094" t="inlineStr"/>
       <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -30334,42 +30256,44 @@
       </c>
       <c r="E1095" t="inlineStr"/>
       <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
+          <t>09:30 PM</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>15-Year Mortgage RateMAR/20</t>
+        </is>
+      </c>
       <c r="C1096" t="inlineStr"/>
       <c r="D1096" t="inlineStr"/>
       <c r="E1096" t="inlineStr"/>
       <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/12</t>
+          <t>30-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr"/>
-      <c r="D1097" t="inlineStr">
-        <is>
-          <t>$6.76T</t>
-        </is>
-      </c>
+      <c r="D1097" t="inlineStr"/>
       <c r="E1097" t="inlineStr"/>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr">
@@ -30381,92 +30305,56 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr"/>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1098" t="inlineStr">
-        <is>
-          <t>63.4</t>
-        </is>
-      </c>
-      <c r="F1098" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
+          <t>2.243%</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr"/>
+      <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1099" t="inlineStr">
-        <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
-        </is>
-      </c>
+          <t>Friday March 21 2025</t>
+        </is>
+      </c>
+      <c r="B1099" t="inlineStr"/>
       <c r="C1099" t="inlineStr"/>
-      <c r="D1099" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="D1099" t="inlineStr"/>
       <c r="E1099" t="inlineStr"/>
-      <c r="F1099" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
-      <c r="G1099" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1099" t="inlineStr"/>
+      <c r="G1099" t="inlineStr"/>
     </row>
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
+          <t>Fed Balance SheetMAR/19</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr"/>
-      <c r="D1100" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E1100" t="inlineStr">
-        <is>
-          <t>64.3</t>
-        </is>
-      </c>
-      <c r="F1100" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
+      <c r="D1100" t="inlineStr"/>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr">
         <is>
           <t>3</t>
@@ -30476,30 +30364,18 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAR</t>
+          <t>Baker Hughes Oil Rig CountMAR/21</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr"/>
-      <c r="D1101" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1101" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="F1101" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+      <c r="D1101" t="inlineStr"/>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr">
         <is>
           <t>3</t>
@@ -30509,26 +30385,18 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
+          <t>Baker Hughes Total Rigs CountMAR/21</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr"/>
-      <c r="D1102" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="D1102" t="inlineStr"/>
       <c r="E1102" t="inlineStr"/>
-      <c r="F1102" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr">
         <is>
           <t>3</t>
@@ -30538,2137 +30406,15 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1103" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
-        </is>
-      </c>
+          <t>Saturday March 22 2025</t>
+        </is>
+      </c>
+      <c r="B1103" t="inlineStr"/>
       <c r="C1103" t="inlineStr"/>
-      <c r="D1103" t="inlineStr">
-        <is>
-          <t>486</t>
-        </is>
-      </c>
+      <c r="D1103" t="inlineStr"/>
       <c r="E1103" t="inlineStr"/>
       <c r="F1103" t="inlineStr"/>
-      <c r="G1103" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1104">
-      <c r="A1104" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1104" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
-        </is>
-      </c>
-      <c r="C1104" t="inlineStr"/>
-      <c r="D1104" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="E1104" t="inlineStr"/>
-      <c r="F1104" t="inlineStr"/>
-      <c r="G1104" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1105">
-      <c r="A1105" t="inlineStr">
-        <is>
-          <t>Saturday March 15 2025</t>
-        </is>
-      </c>
-      <c r="B1105" t="inlineStr"/>
-      <c r="C1105" t="inlineStr"/>
-      <c r="D1105" t="inlineStr"/>
-      <c r="E1105" t="inlineStr"/>
-      <c r="F1105" t="inlineStr"/>
-      <c r="G1105" t="inlineStr"/>
-    </row>
-    <row r="1106">
-      <c r="A1106" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B1106" t="inlineStr"/>
-      <c r="C1106" t="inlineStr"/>
-      <c r="D1106" t="inlineStr"/>
-      <c r="E1106" t="inlineStr"/>
-      <c r="F1106" t="inlineStr"/>
-      <c r="G1106" t="inlineStr"/>
-    </row>
-    <row r="1107">
-      <c r="A1107" t="inlineStr">
-        <is>
-          <t>Monday March 17 2025</t>
-        </is>
-      </c>
-      <c r="B1107" t="inlineStr"/>
-      <c r="C1107" t="inlineStr"/>
-      <c r="D1107" t="inlineStr"/>
-      <c r="E1107" t="inlineStr"/>
-      <c r="F1107" t="inlineStr"/>
-      <c r="G1107" t="inlineStr"/>
-    </row>
-    <row r="1108">
-      <c r="A1108" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1108" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1108" t="inlineStr"/>
-      <c r="D1108" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E1108" t="inlineStr"/>
-      <c r="F1108" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1109">
-      <c r="A1109" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1109" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1109" t="inlineStr"/>
-      <c r="D1109" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="E1109" t="inlineStr"/>
-      <c r="F1109" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G1109" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1110" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1110" t="inlineStr"/>
-      <c r="D1110" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1111">
-      <c r="A1111" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1111" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1111" t="inlineStr"/>
-      <c r="D1111" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1111" t="inlineStr"/>
-      <c r="F1111" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1112">
-      <c r="A1112" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1112" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1112" t="inlineStr"/>
-      <c r="D1112" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E1112" t="inlineStr"/>
-      <c r="F1112" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1113">
-      <c r="A1113" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1113" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1113" t="inlineStr"/>
-      <c r="D1113" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1114">
-      <c r="A1114" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1114" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMJAN</t>
-        </is>
-      </c>
-      <c r="C1114" t="inlineStr"/>
-      <c r="D1114" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1115">
-      <c r="A1115" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1115" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1115" t="inlineStr"/>
-      <c r="D1115" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G1115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1116">
-      <c r="A1116" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1116" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C1116" t="inlineStr"/>
-      <c r="D1116" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1116" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1116" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1117">
-      <c r="A1117" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1117" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1117" t="inlineStr"/>
-      <c r="D1117" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E1117" t="inlineStr"/>
-      <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1118">
-      <c r="A1118" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1118" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1118" t="inlineStr"/>
-      <c r="D1118" t="inlineStr">
-        <is>
-          <t>4.075%</t>
-        </is>
-      </c>
-      <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1119">
-      <c r="A1119" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1119" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1119" t="inlineStr"/>
-      <c r="D1119" t="inlineStr"/>
-      <c r="E1119" t="inlineStr"/>
-      <c r="F1119" t="inlineStr"/>
-      <c r="G1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>Tuesday March 18 2025</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr"/>
-      <c r="C1120" t="inlineStr"/>
-      <c r="D1120" t="inlineStr"/>
-      <c r="E1120" t="inlineStr"/>
-      <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1121" t="inlineStr">
-        <is>
-          <t>Building Permits PrelFEB</t>
-        </is>
-      </c>
-      <c r="C1121" t="inlineStr"/>
-      <c r="D1121" t="inlineStr">
-        <is>
-          <t>1.473M</t>
-        </is>
-      </c>
-      <c r="E1121" t="inlineStr"/>
-      <c r="F1121" t="inlineStr">
-        <is>
-          <t>1.471M</t>
-        </is>
-      </c>
-      <c r="G1121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1122">
-      <c r="A1122" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1122" t="inlineStr">
-        <is>
-          <t>Housing StartsFEB</t>
-        </is>
-      </c>
-      <c r="C1122" t="inlineStr"/>
-      <c r="D1122" t="inlineStr">
-        <is>
-          <t>1.366M</t>
-        </is>
-      </c>
-      <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr">
-        <is>
-          <t>1.34M</t>
-        </is>
-      </c>
-      <c r="G1122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1123" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelFEB</t>
-        </is>
-      </c>
-      <c r="C1123" t="inlineStr"/>
-      <c r="D1123" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1124" t="inlineStr">
-        <is>
-          <t>Export Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1124" t="inlineStr"/>
-      <c r="D1124" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G1124" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1125" t="inlineStr"/>
-      <c r="D1125" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="G1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1126" t="inlineStr">
-        <is>
-          <t>Import Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1126" t="inlineStr"/>
-      <c r="D1126" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1126" t="inlineStr"/>
-      <c r="F1126" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr">
-        <is>
-          <t>Export Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1127" t="inlineStr"/>
-      <c r="D1127" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E1127" t="inlineStr"/>
-      <c r="F1127" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1128" t="inlineStr">
-        <is>
-          <t>Import Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1128" t="inlineStr"/>
-      <c r="D1128" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E1128" t="inlineStr"/>
-      <c r="F1128" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1129" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/15</t>
-        </is>
-      </c>
-      <c r="C1129" t="inlineStr"/>
-      <c r="D1129" t="inlineStr">
-        <is>
-          <t>5.7%</t>
-        </is>
-      </c>
-      <c r="E1129" t="inlineStr"/>
-      <c r="F1129" t="inlineStr"/>
-      <c r="G1129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1130" t="inlineStr"/>
-      <c r="D1130" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1130" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1131" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationFEB</t>
-        </is>
-      </c>
-      <c r="C1131" t="inlineStr"/>
-      <c r="D1131" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="G1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1132" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1132" t="inlineStr"/>
-      <c r="D1132" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1133" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1133" t="inlineStr"/>
-      <c r="D1133" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1134" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1134" t="inlineStr"/>
-      <c r="D1134" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1135">
-      <c r="A1135" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1135" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1135" t="inlineStr"/>
-      <c r="D1135" t="inlineStr">
-        <is>
-          <t>4.05%</t>
-        </is>
-      </c>
-      <c r="E1135" t="inlineStr"/>
-      <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1136">
-      <c r="A1136" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1136" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr">
-        <is>
-          <t>4.83%</t>
-        </is>
-      </c>
-      <c r="E1136" t="inlineStr"/>
-      <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1137">
-      <c r="A1137" t="inlineStr">
-        <is>
-          <t>Wednesday March 19 2025</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr"/>
-      <c r="C1137" t="inlineStr"/>
-      <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr"/>
-      <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1138" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr">
-        <is>
-          <t>4.247M</t>
-        </is>
-      </c>
-      <c r="E1138" t="inlineStr"/>
-      <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/14</t>
-        </is>
-      </c>
-      <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr">
-        <is>
-          <t>6.67%</t>
-        </is>
-      </c>
-      <c r="E1139" t="inlineStr"/>
-      <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/14</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1140" t="inlineStr"/>
-      <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr">
-        <is>
-          <t>269.3</t>
-        </is>
-      </c>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr">
-        <is>
-          <t>911.3</t>
-        </is>
-      </c>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr">
-        <is>
-          <t>154.6</t>
-        </is>
-      </c>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr">
-        <is>
-          <t>1.448M</t>
-        </is>
-      </c>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr">
-        <is>
-          <t>-5.737M</t>
-        </is>
-      </c>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr">
-        <is>
-          <t>0.503M</t>
-        </is>
-      </c>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr">
-        <is>
-          <t>-1.228M</t>
-        </is>
-      </c>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr">
-        <is>
-          <t>-0.113M</t>
-        </is>
-      </c>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr">
-        <is>
-          <t>-1.559M</t>
-        </is>
-      </c>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr">
-        <is>
-          <t>-0.078M</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr">
-        <is>
-          <t>-0.183M</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr">
-        <is>
-          <t>0.321M</t>
-        </is>
-      </c>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr">
-        <is>
-          <t>FOMC Economic Projections</t>
-        </is>
-      </c>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 1st Yr</t>
-        </is>
-      </c>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 2nd Yr</t>
-        </is>
-      </c>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Current</t>
-        </is>
-      </c>
-      <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1159" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Longer</t>
-        </is>
-      </c>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1159" t="inlineStr"/>
-      <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr"/>
-      <c r="B1160" t="inlineStr">
-        <is>
-          <t>International Monetary Market (IMM) Date</t>
-        </is>
-      </c>
-      <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>Thursday March 20 2025</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1162" t="inlineStr"/>
-      <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
-      <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>$72B</t>
-        </is>
-      </c>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN</t>
-        </is>
-      </c>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>$-49.7B</t>
-        </is>
-      </c>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr">
-        <is>
-          <t>$87.1B</t>
-        </is>
-      </c>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr">
-        <is>
-          <t>$-310.9B</t>
-        </is>
-      </c>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr">
-        <is>
-          <t>$ -390.0B</t>
-        </is>
-      </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/15</t>
-        </is>
-      </c>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr"/>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>18.1</t>
-        </is>
-      </c>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/15</t>
-        </is>
-      </c>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAR</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAR</t>
-        </is>
-      </c>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAR</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>21.9</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAR</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>40.50</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>Existing Home SalesFEB</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>4.08M</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr">
-        <is>
-          <t>4.05M</t>
-        </is>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>2.243%</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>Friday March 21 2025</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr"/>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/19</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>Saturday March 22 2025</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
+      <c r="G1103" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1189"/>
+  <dimension ref="A1:G1105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29122,10 +29122,8 @@
         </is>
       </c>
       <c r="F1055" t="inlineStr"/>
-      <c r="G1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -29151,10 +29149,8 @@
       </c>
       <c r="E1056" t="inlineStr"/>
       <c r="F1056" t="inlineStr"/>
-      <c r="G1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -29180,10 +29176,8 @@
       </c>
       <c r="E1057" t="inlineStr"/>
       <c r="F1057" t="inlineStr"/>
-      <c r="G1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -29209,10 +29203,8 @@
       </c>
       <c r="E1058" t="inlineStr"/>
       <c r="F1058" t="inlineStr"/>
-      <c r="G1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -29238,10 +29230,8 @@
       </c>
       <c r="E1059" t="inlineStr"/>
       <c r="F1059" t="inlineStr"/>
-      <c r="G1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -29267,10 +29257,8 @@
       </c>
       <c r="E1060" t="inlineStr"/>
       <c r="F1060" t="inlineStr"/>
-      <c r="G1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -29304,10 +29292,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1061" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1061" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1062">
@@ -29341,10 +29327,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="G1062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -29378,10 +29362,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -29415,10 +29397,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="G1064" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1064" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1065">
@@ -29452,10 +29432,8 @@
           <t>319.3</t>
         </is>
       </c>
-      <c r="G1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -29485,10 +29463,8 @@
           <t>320</t>
         </is>
       </c>
-      <c r="G1066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -29518,10 +29494,8 @@
         </is>
       </c>
       <c r="F1067" t="inlineStr"/>
-      <c r="G1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -29551,10 +29525,8 @@
         </is>
       </c>
       <c r="F1068" t="inlineStr"/>
-      <c r="G1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -29580,10 +29552,8 @@
       </c>
       <c r="E1069" t="inlineStr"/>
       <c r="F1069" t="inlineStr"/>
-      <c r="G1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -29609,10 +29579,8 @@
       </c>
       <c r="E1070" t="inlineStr"/>
       <c r="F1070" t="inlineStr"/>
-      <c r="G1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -29638,10 +29606,8 @@
       </c>
       <c r="E1071" t="inlineStr"/>
       <c r="F1071" t="inlineStr"/>
-      <c r="G1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -29671,10 +29637,8 @@
         </is>
       </c>
       <c r="F1072" t="inlineStr"/>
-      <c r="G1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -29700,10 +29664,8 @@
       </c>
       <c r="E1073" t="inlineStr"/>
       <c r="F1073" t="inlineStr"/>
-      <c r="G1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -29729,10 +29691,8 @@
       </c>
       <c r="E1074" t="inlineStr"/>
       <c r="F1074" t="inlineStr"/>
-      <c r="G1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -29758,10 +29718,8 @@
       </c>
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
-      <c r="G1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -29787,10 +29745,8 @@
       </c>
       <c r="E1076" t="inlineStr"/>
       <c r="F1076" t="inlineStr"/>
-      <c r="G1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -29816,10 +29772,8 @@
       </c>
       <c r="E1077" t="inlineStr"/>
       <c r="F1077" t="inlineStr"/>
-      <c r="G1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -29853,10 +29807,8 @@
           <t>$-290.0B</t>
         </is>
       </c>
-      <c r="G1078" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1078" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1079">
@@ -29899,10 +29851,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1080" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -29932,10 +29882,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1081" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -29965,10 +29913,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -29998,10 +29944,8 @@
           <t>1910.0K</t>
         </is>
       </c>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -30031,10 +29975,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -30060,10 +30002,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1085" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1086">
@@ -30089,10 +30029,8 @@
           <t>148.1</t>
         </is>
       </c>
-      <c r="G1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -30118,10 +30056,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1087" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1088">
@@ -30147,10 +30083,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1088" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1089">
@@ -30180,10 +30114,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -30209,10 +30141,8 @@
         </is>
       </c>
       <c r="F1090" t="inlineStr"/>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -30234,10 +30164,8 @@
       </c>
       <c r="E1091" t="inlineStr"/>
       <c r="F1091" t="inlineStr"/>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -30259,10 +30187,8 @@
       </c>
       <c r="E1092" t="inlineStr"/>
       <c r="F1092" t="inlineStr"/>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -30284,10 +30210,8 @@
       </c>
       <c r="E1093" t="inlineStr"/>
       <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -30309,10 +30233,8 @@
       </c>
       <c r="E1094" t="inlineStr"/>
       <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -30334,42 +30256,44 @@
       </c>
       <c r="E1095" t="inlineStr"/>
       <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
+          <t>09:00 PM</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>4-Week Bill Auction</t>
+        </is>
+      </c>
       <c r="C1096" t="inlineStr"/>
       <c r="D1096" t="inlineStr"/>
       <c r="E1096" t="inlineStr"/>
       <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/12</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr"/>
-      <c r="D1097" t="inlineStr">
-        <is>
-          <t>$6.76T</t>
-        </is>
-      </c>
+      <c r="D1097" t="inlineStr"/>
       <c r="E1097" t="inlineStr"/>
       <c r="F1097" t="inlineStr"/>
       <c r="G1097" t="inlineStr">
@@ -30381,59 +30305,39 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
+          <t>15-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr"/>
-      <c r="D1098" t="inlineStr">
-        <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1098" t="inlineStr">
-        <is>
-          <t>63.4</t>
-        </is>
-      </c>
-      <c r="F1098" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
+      <c r="D1098" t="inlineStr"/>
+      <c r="E1098" t="inlineStr"/>
+      <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
+          <t>30-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr"/>
-      <c r="D1099" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="D1099" t="inlineStr"/>
       <c r="E1099" t="inlineStr"/>
-      <c r="F1099" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr">
         <is>
           <t>3</t>
@@ -30443,30 +30347,22 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr"/>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E1100" t="inlineStr">
-        <is>
-          <t>64.3</t>
-        </is>
-      </c>
-      <c r="F1100" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
+          <t>2.243%</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr">
         <is>
           <t>3</t>
@@ -30476,59 +30372,31 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1101" t="inlineStr">
-        <is>
-          <t>Michigan Current Conditions PrelMAR</t>
-        </is>
-      </c>
+          <t>Friday March 21 2025</t>
+        </is>
+      </c>
+      <c r="B1101" t="inlineStr"/>
       <c r="C1101" t="inlineStr"/>
-      <c r="D1101" t="inlineStr">
-        <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1101" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="F1101" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
-      <c r="G1101" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="D1101" t="inlineStr"/>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr"/>
+      <c r="G1101" t="inlineStr"/>
     </row>
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
+          <t>Fed Balance SheetMAR/19</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr"/>
-      <c r="D1102" t="inlineStr">
-        <is>
-          <t>4.3%</t>
-        </is>
-      </c>
+      <c r="D1102" t="inlineStr"/>
       <c r="E1102" t="inlineStr"/>
-      <c r="F1102" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr">
         <is>
           <t>3</t>
@@ -30543,15 +30411,11 @@
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
+          <t>Baker Hughes Oil Rig CountMAR/21</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr"/>
-      <c r="D1103" t="inlineStr">
-        <is>
-          <t>486</t>
-        </is>
-      </c>
+      <c r="D1103" t="inlineStr"/>
       <c r="E1103" t="inlineStr"/>
       <c r="F1103" t="inlineStr"/>
       <c r="G1103" t="inlineStr">
@@ -30568,15 +30432,11 @@
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
+          <t>Baker Hughes Total Rigs CountMAR/21</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr"/>
-      <c r="D1104" t="inlineStr">
-        <is>
-          <t>592</t>
-        </is>
-      </c>
+      <c r="D1104" t="inlineStr"/>
       <c r="E1104" t="inlineStr"/>
       <c r="F1104" t="inlineStr"/>
       <c r="G1104" t="inlineStr">
@@ -30588,7 +30448,7 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Saturday March 15 2025</t>
+          <t>Saturday March 22 2025</t>
         </is>
       </c>
       <c r="B1105" t="inlineStr"/>
@@ -30598,2078 +30458,6 @@
       <c r="F1105" t="inlineStr"/>
       <c r="G1105" t="inlineStr"/>
     </row>
-    <row r="1106">
-      <c r="A1106" t="inlineStr">
-        <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B1106" t="inlineStr"/>
-      <c r="C1106" t="inlineStr"/>
-      <c r="D1106" t="inlineStr"/>
-      <c r="E1106" t="inlineStr"/>
-      <c r="F1106" t="inlineStr"/>
-      <c r="G1106" t="inlineStr"/>
-    </row>
-    <row r="1107">
-      <c r="A1107" t="inlineStr">
-        <is>
-          <t>Monday March 17 2025</t>
-        </is>
-      </c>
-      <c r="B1107" t="inlineStr"/>
-      <c r="C1107" t="inlineStr"/>
-      <c r="D1107" t="inlineStr"/>
-      <c r="E1107" t="inlineStr"/>
-      <c r="F1107" t="inlineStr"/>
-      <c r="G1107" t="inlineStr"/>
-    </row>
-    <row r="1108">
-      <c r="A1108" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1108" t="inlineStr">
-        <is>
-          <t>Retail Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1108" t="inlineStr"/>
-      <c r="D1108" t="inlineStr">
-        <is>
-          <t>-0.9%</t>
-        </is>
-      </c>
-      <c r="E1108" t="inlineStr"/>
-      <c r="F1108" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="G1108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1109">
-      <c r="A1109" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1109" t="inlineStr">
-        <is>
-          <t>NY Empire State Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1109" t="inlineStr"/>
-      <c r="D1109" t="inlineStr">
-        <is>
-          <t>5.7</t>
-        </is>
-      </c>
-      <c r="E1109" t="inlineStr"/>
-      <c r="F1109" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G1109" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1110" t="inlineStr">
-        <is>
-          <t>Retail Sales Control Group MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1110" t="inlineStr"/>
-      <c r="D1110" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
-      <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="G1110" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1111">
-      <c r="A1111" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1111" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1111" t="inlineStr"/>
-      <c r="D1111" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1111" t="inlineStr"/>
-      <c r="F1111" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1112">
-      <c r="A1112" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1112" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1112" t="inlineStr"/>
-      <c r="D1112" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
-      <c r="E1112" t="inlineStr"/>
-      <c r="F1112" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1113">
-      <c r="A1113" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1113" t="inlineStr">
-        <is>
-          <t>Retail Sales YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1113" t="inlineStr"/>
-      <c r="D1113" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
-      <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
-      <c r="G1113" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1114">
-      <c r="A1114" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1114" t="inlineStr">
-        <is>
-          <t>Business Inventories MoMJAN</t>
-        </is>
-      </c>
-      <c r="C1114" t="inlineStr"/>
-      <c r="D1114" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="G1114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1115">
-      <c r="A1115" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1115" t="inlineStr">
-        <is>
-          <t>NAHB Housing Market IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1115" t="inlineStr"/>
-      <c r="D1115" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="G1115" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1116">
-      <c r="A1116" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1116" t="inlineStr">
-        <is>
-          <t>Retail Inventories Ex Autos MoMJAN</t>
-        </is>
-      </c>
-      <c r="C1116" t="inlineStr"/>
-      <c r="D1116" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1116" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1116" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1116" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1117">
-      <c r="A1117" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1117" t="inlineStr">
-        <is>
-          <t>3-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1117" t="inlineStr"/>
-      <c r="D1117" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
-      <c r="E1117" t="inlineStr"/>
-      <c r="F1117" t="inlineStr"/>
-      <c r="G1117" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1118">
-      <c r="A1118" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1118" t="inlineStr">
-        <is>
-          <t>6-Month Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1118" t="inlineStr"/>
-      <c r="D1118" t="inlineStr">
-        <is>
-          <t>4.075%</t>
-        </is>
-      </c>
-      <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
-      <c r="G1118" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1119">
-      <c r="A1119" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1119" t="inlineStr">
-        <is>
-          <t>NOPA Crush Report</t>
-        </is>
-      </c>
-      <c r="C1119" t="inlineStr"/>
-      <c r="D1119" t="inlineStr"/>
-      <c r="E1119" t="inlineStr"/>
-      <c r="F1119" t="inlineStr"/>
-      <c r="G1119" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1120">
-      <c r="A1120" t="inlineStr">
-        <is>
-          <t>Tuesday March 18 2025</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr"/>
-      <c r="C1120" t="inlineStr"/>
-      <c r="D1120" t="inlineStr"/>
-      <c r="E1120" t="inlineStr"/>
-      <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
-    </row>
-    <row r="1121">
-      <c r="A1121" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1121" t="inlineStr">
-        <is>
-          <t>Building Permits PrelFEB</t>
-        </is>
-      </c>
-      <c r="C1121" t="inlineStr"/>
-      <c r="D1121" t="inlineStr">
-        <is>
-          <t>1.473M</t>
-        </is>
-      </c>
-      <c r="E1121" t="inlineStr"/>
-      <c r="F1121" t="inlineStr">
-        <is>
-          <t>1.471M</t>
-        </is>
-      </c>
-      <c r="G1121" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1122">
-      <c r="A1122" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1122" t="inlineStr">
-        <is>
-          <t>Housing StartsFEB</t>
-        </is>
-      </c>
-      <c r="C1122" t="inlineStr"/>
-      <c r="D1122" t="inlineStr">
-        <is>
-          <t>1.366M</t>
-        </is>
-      </c>
-      <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr">
-        <is>
-          <t>1.34M</t>
-        </is>
-      </c>
-      <c r="G1122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1123">
-      <c r="A1123" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1123" t="inlineStr">
-        <is>
-          <t>Building Permits MoM PrelFEB</t>
-        </is>
-      </c>
-      <c r="C1123" t="inlineStr"/>
-      <c r="D1123" t="inlineStr">
-        <is>
-          <t>-0.6%</t>
-        </is>
-      </c>
-      <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1123" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1124">
-      <c r="A1124" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1124" t="inlineStr">
-        <is>
-          <t>Export Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1124" t="inlineStr"/>
-      <c r="D1124" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="G1124" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1125">
-      <c r="A1125" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1125" t="inlineStr">
-        <is>
-          <t>Housing Starts MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1125" t="inlineStr"/>
-      <c r="D1125" t="inlineStr">
-        <is>
-          <t>-9.8%</t>
-        </is>
-      </c>
-      <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
-      <c r="G1125" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1126">
-      <c r="A1126" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1126" t="inlineStr">
-        <is>
-          <t>Import Prices MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1126" t="inlineStr"/>
-      <c r="D1126" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
-      <c r="E1126" t="inlineStr"/>
-      <c r="F1126" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="G1126" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1127">
-      <c r="A1127" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1127" t="inlineStr">
-        <is>
-          <t>Export Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1127" t="inlineStr"/>
-      <c r="D1127" t="inlineStr">
-        <is>
-          <t>2.7%</t>
-        </is>
-      </c>
-      <c r="E1127" t="inlineStr"/>
-      <c r="F1127" t="inlineStr">
-        <is>
-          <t>4.0%</t>
-        </is>
-      </c>
-      <c r="G1127" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1128">
-      <c r="A1128" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1128" t="inlineStr">
-        <is>
-          <t>Import Prices YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1128" t="inlineStr"/>
-      <c r="D1128" t="inlineStr">
-        <is>
-          <t>1.9%</t>
-        </is>
-      </c>
-      <c r="E1128" t="inlineStr"/>
-      <c r="F1128" t="inlineStr">
-        <is>
-          <t>5.1%</t>
-        </is>
-      </c>
-      <c r="G1128" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1129">
-      <c r="A1129" t="inlineStr">
-        <is>
-          <t>06:25 PM</t>
-        </is>
-      </c>
-      <c r="B1129" t="inlineStr">
-        <is>
-          <t>Redbook YoYMAR/15</t>
-        </is>
-      </c>
-      <c r="C1129" t="inlineStr"/>
-      <c r="D1129" t="inlineStr">
-        <is>
-          <t>5.7%</t>
-        </is>
-      </c>
-      <c r="E1129" t="inlineStr"/>
-      <c r="F1129" t="inlineStr"/>
-      <c r="G1129" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1130">
-      <c r="A1130" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1130" t="inlineStr">
-        <is>
-          <t>Industrial Production MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1130" t="inlineStr"/>
-      <c r="D1130" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="G1130" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1131">
-      <c r="A1131" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1131" t="inlineStr">
-        <is>
-          <t>Capacity UtilizationFEB</t>
-        </is>
-      </c>
-      <c r="C1131" t="inlineStr"/>
-      <c r="D1131" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
-      <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
-      <c r="G1131" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1132">
-      <c r="A1132" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1132" t="inlineStr">
-        <is>
-          <t>Industrial Production YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1132" t="inlineStr"/>
-      <c r="D1132" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
-      <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
-      <c r="G1132" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1133">
-      <c r="A1133" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1133" t="inlineStr">
-        <is>
-          <t>Manufacturing Production MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1133" t="inlineStr"/>
-      <c r="D1133" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
-      <c r="G1133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1134">
-      <c r="A1134" t="inlineStr">
-        <is>
-          <t>06:45 PM</t>
-        </is>
-      </c>
-      <c r="B1134" t="inlineStr">
-        <is>
-          <t>Manufacturing Production YoYFEB</t>
-        </is>
-      </c>
-      <c r="C1134" t="inlineStr"/>
-      <c r="D1134" t="inlineStr">
-        <is>
-          <t>1%</t>
-        </is>
-      </c>
-      <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
-      <c r="G1134" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1135">
-      <c r="A1135" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1135" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1135" t="inlineStr"/>
-      <c r="D1135" t="inlineStr">
-        <is>
-          <t>4.05%</t>
-        </is>
-      </c>
-      <c r="E1135" t="inlineStr"/>
-      <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1136">
-      <c r="A1136" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1136" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
-      <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr">
-        <is>
-          <t>4.83%</t>
-        </is>
-      </c>
-      <c r="E1136" t="inlineStr"/>
-      <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1137">
-      <c r="A1137" t="inlineStr">
-        <is>
-          <t>Wednesday March 19 2025</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr"/>
-      <c r="C1137" t="inlineStr"/>
-      <c r="D1137" t="inlineStr"/>
-      <c r="E1137" t="inlineStr"/>
-      <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
-    </row>
-    <row r="1138">
-      <c r="A1138" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1138" t="inlineStr">
-        <is>
-          <t>API Crude Oil Stock ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr">
-        <is>
-          <t>4.247M</t>
-        </is>
-      </c>
-      <c r="E1138" t="inlineStr"/>
-      <c r="F1138" t="inlineStr"/>
-      <c r="G1138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1139">
-      <c r="A1139" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/14</t>
-        </is>
-      </c>
-      <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr">
-        <is>
-          <t>6.67%</t>
-        </is>
-      </c>
-      <c r="E1139" t="inlineStr"/>
-      <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/14</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1140" t="inlineStr"/>
-      <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr">
-        <is>
-          <t>269.3</t>
-        </is>
-      </c>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr">
-        <is>
-          <t>911.3</t>
-        </is>
-      </c>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr">
-        <is>
-          <t>154.6</t>
-        </is>
-      </c>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr">
-        <is>
-          <t>1.448M</t>
-        </is>
-      </c>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr">
-        <is>
-          <t>-5.737M</t>
-        </is>
-      </c>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr">
-        <is>
-          <t>0.503M</t>
-        </is>
-      </c>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr">
-        <is>
-          <t>-1.228M</t>
-        </is>
-      </c>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr">
-        <is>
-          <t>-0.113M</t>
-        </is>
-      </c>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr">
-        <is>
-          <t>-1.559M</t>
-        </is>
-      </c>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr">
-        <is>
-          <t>-0.078M</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr">
-        <is>
-          <t>-0.183M</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr">
-        <is>
-          <t>0.321M</t>
-        </is>
-      </c>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr">
-        <is>
-          <t>FOMC Economic Projections</t>
-        </is>
-      </c>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 1st Yr</t>
-        </is>
-      </c>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 2nd Yr</t>
-        </is>
-      </c>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Current</t>
-        </is>
-      </c>
-      <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1159" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Longer</t>
-        </is>
-      </c>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1159" t="inlineStr"/>
-      <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr"/>
-      <c r="B1160" t="inlineStr">
-        <is>
-          <t>International Monetary Market (IMM) Date</t>
-        </is>
-      </c>
-      <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>Thursday March 20 2025</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1162" t="inlineStr"/>
-      <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
-      <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>$72B</t>
-        </is>
-      </c>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN</t>
-        </is>
-      </c>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>$-49.7B</t>
-        </is>
-      </c>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr">
-        <is>
-          <t>$87.1B</t>
-        </is>
-      </c>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr">
-        <is>
-          <t>$-310.9B</t>
-        </is>
-      </c>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr">
-        <is>
-          <t>$ -390.0B</t>
-        </is>
-      </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/15</t>
-        </is>
-      </c>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr"/>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>18.1</t>
-        </is>
-      </c>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/15</t>
-        </is>
-      </c>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAR</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAR</t>
-        </is>
-      </c>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAR</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>21.9</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAR</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>40.50</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>Existing Home SalesFEB</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>4.08M</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr">
-        <is>
-          <t>4.05M</t>
-        </is>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>2.243%</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>Friday March 21 2025</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr"/>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/19</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>Saturday March 22 2025</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1189"/>
+  <dimension ref="A1:G1139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29122,10 +29122,8 @@
         </is>
       </c>
       <c r="F1055" t="inlineStr"/>
-      <c r="G1055" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1055" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1056">
@@ -29151,10 +29149,8 @@
       </c>
       <c r="E1056" t="inlineStr"/>
       <c r="F1056" t="inlineStr"/>
-      <c r="G1056" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1056" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1057">
@@ -29180,10 +29176,8 @@
       </c>
       <c r="E1057" t="inlineStr"/>
       <c r="F1057" t="inlineStr"/>
-      <c r="G1057" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1057" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1058">
@@ -29209,10 +29203,8 @@
       </c>
       <c r="E1058" t="inlineStr"/>
       <c r="F1058" t="inlineStr"/>
-      <c r="G1058" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1058" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1059">
@@ -29238,10 +29230,8 @@
       </c>
       <c r="E1059" t="inlineStr"/>
       <c r="F1059" t="inlineStr"/>
-      <c r="G1059" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1059" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1060">
@@ -29267,10 +29257,8 @@
       </c>
       <c r="E1060" t="inlineStr"/>
       <c r="F1060" t="inlineStr"/>
-      <c r="G1060" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1060" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1061">
@@ -29304,10 +29292,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1061" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1061" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1062">
@@ -29341,10 +29327,8 @@
           <t>3.1%</t>
         </is>
       </c>
-      <c r="G1062" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1062" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1063">
@@ -29378,10 +29362,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1063" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1063" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1064">
@@ -29415,10 +29397,8 @@
           <t>2.9%</t>
         </is>
       </c>
-      <c r="G1064" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1064" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1065">
@@ -29452,10 +29432,8 @@
           <t>319.3</t>
         </is>
       </c>
-      <c r="G1065" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1065" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1066">
@@ -29485,10 +29463,8 @@
           <t>320</t>
         </is>
       </c>
-      <c r="G1066" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1066" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1067">
@@ -29518,10 +29494,8 @@
         </is>
       </c>
       <c r="F1067" t="inlineStr"/>
-      <c r="G1067" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1067" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1068">
@@ -29551,10 +29525,8 @@
         </is>
       </c>
       <c r="F1068" t="inlineStr"/>
-      <c r="G1068" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1068" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1069">
@@ -29580,10 +29552,8 @@
       </c>
       <c r="E1069" t="inlineStr"/>
       <c r="F1069" t="inlineStr"/>
-      <c r="G1069" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1069" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1070">
@@ -29609,10 +29579,8 @@
       </c>
       <c r="E1070" t="inlineStr"/>
       <c r="F1070" t="inlineStr"/>
-      <c r="G1070" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1070" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1071">
@@ -29638,10 +29606,8 @@
       </c>
       <c r="E1071" t="inlineStr"/>
       <c r="F1071" t="inlineStr"/>
-      <c r="G1071" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1071" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1072">
@@ -29671,10 +29637,8 @@
         </is>
       </c>
       <c r="F1072" t="inlineStr"/>
-      <c r="G1072" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1072" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1073">
@@ -29700,10 +29664,8 @@
       </c>
       <c r="E1073" t="inlineStr"/>
       <c r="F1073" t="inlineStr"/>
-      <c r="G1073" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1073" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1074">
@@ -29729,10 +29691,8 @@
       </c>
       <c r="E1074" t="inlineStr"/>
       <c r="F1074" t="inlineStr"/>
-      <c r="G1074" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1074" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1075">
@@ -29758,10 +29718,8 @@
       </c>
       <c r="E1075" t="inlineStr"/>
       <c r="F1075" t="inlineStr"/>
-      <c r="G1075" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1075" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1076">
@@ -29787,10 +29745,8 @@
       </c>
       <c r="E1076" t="inlineStr"/>
       <c r="F1076" t="inlineStr"/>
-      <c r="G1076" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1076" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1077">
@@ -29816,10 +29772,8 @@
       </c>
       <c r="E1077" t="inlineStr"/>
       <c r="F1077" t="inlineStr"/>
-      <c r="G1077" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1077" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1078">
@@ -29853,10 +29807,8 @@
           <t>$-290.0B</t>
         </is>
       </c>
-      <c r="G1078" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1078" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1079">
@@ -29899,10 +29851,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1080" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -29932,10 +29882,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1081" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -29965,10 +29913,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -29998,10 +29944,8 @@
           <t>1910.0K</t>
         </is>
       </c>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -30031,10 +29975,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -30060,10 +30002,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1085" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1086">
@@ -30089,10 +30029,8 @@
           <t>148.1</t>
         </is>
       </c>
-      <c r="G1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -30118,10 +30056,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1087" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1088">
@@ -30147,10 +30083,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1088" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1089">
@@ -30180,10 +30114,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -30209,10 +30141,8 @@
         </is>
       </c>
       <c r="F1090" t="inlineStr"/>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -30234,10 +30164,8 @@
       </c>
       <c r="E1091" t="inlineStr"/>
       <c r="F1091" t="inlineStr"/>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -30259,10 +30187,8 @@
       </c>
       <c r="E1092" t="inlineStr"/>
       <c r="F1092" t="inlineStr"/>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -30284,10 +30210,8 @@
       </c>
       <c r="E1093" t="inlineStr"/>
       <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -30309,10 +30233,8 @@
       </c>
       <c r="E1094" t="inlineStr"/>
       <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -30334,40 +30256,50 @@
       </c>
       <c r="E1095" t="inlineStr"/>
       <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeMAR/14</t>
+        </is>
+      </c>
       <c r="C1096" t="inlineStr"/>
-      <c r="D1096" t="inlineStr"/>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>0.503M</t>
+        </is>
+      </c>
       <c r="E1096" t="inlineStr"/>
       <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/12</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr"/>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>$6.76T</t>
+          <t>-1.228M</t>
         </is>
       </c>
       <c r="E1097" t="inlineStr"/>
@@ -30381,59 +30313,47 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
+          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr"/>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1098" t="inlineStr">
-        <is>
-          <t>63.4</t>
-        </is>
-      </c>
-      <c r="F1098" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
+          <t>-0.113M</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr"/>
+      <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
+          <t>EIA Distillate Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr"/>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-1.559M</t>
         </is>
       </c>
       <c r="E1099" t="inlineStr"/>
-      <c r="F1099" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr">
         <is>
           <t>3</t>
@@ -30443,30 +30363,22 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
+          <t>EIA Gasoline Production ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr"/>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E1100" t="inlineStr">
-        <is>
-          <t>64.3</t>
-        </is>
-      </c>
-      <c r="F1100" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
+          <t>-0.078M</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr">
         <is>
           <t>3</t>
@@ -30476,30 +30388,22 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAR</t>
+          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr"/>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1101" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="F1101" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+          <t>-0.183M</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr">
         <is>
           <t>3</t>
@@ -30509,26 +30413,22 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
+          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr"/>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.321M</t>
         </is>
       </c>
       <c r="E1102" t="inlineStr"/>
-      <c r="F1102" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr">
         <is>
           <t>3</t>
@@ -30538,18 +30438,18 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr"/>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="E1103" t="inlineStr"/>
@@ -30563,391 +30463,371 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr"/>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="E1104" t="inlineStr"/>
-      <c r="F1104" t="inlineStr"/>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Saturday March 15 2025</t>
-        </is>
-      </c>
-      <c r="B1105" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>FOMC Economic Projections</t>
+        </is>
+      </c>
       <c r="C1105" t="inlineStr"/>
       <c r="D1105" t="inlineStr"/>
       <c r="E1105" t="inlineStr"/>
       <c r="F1105" t="inlineStr"/>
-      <c r="G1105" t="inlineStr"/>
+      <c r="G1105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B1106" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Interest Rate Projection - 1st Yr</t>
+        </is>
+      </c>
       <c r="C1106" t="inlineStr"/>
-      <c r="D1106" t="inlineStr"/>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="E1106" t="inlineStr"/>
       <c r="F1106" t="inlineStr"/>
-      <c r="G1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>Monday March 17 2025</t>
-        </is>
-      </c>
-      <c r="B1107" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Interest Rate Projection - 2nd Yr</t>
+        </is>
+      </c>
       <c r="C1107" t="inlineStr"/>
-      <c r="D1107" t="inlineStr"/>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1107" t="inlineStr"/>
       <c r="F1107" t="inlineStr"/>
-      <c r="G1107" t="inlineStr"/>
+      <c r="G1107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Retail Sales MoMFEB</t>
+          <t>Interest Rate Projection - Current</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr"/>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1108" t="inlineStr"/>
-      <c r="F1108" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexMAR</t>
+          <t>Interest Rate Projection - Longer</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr"/>
       <c r="D1109" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E1109" t="inlineStr"/>
-      <c r="F1109" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A1110" t="inlineStr"/>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMFEB</t>
+          <t>International Monetary Market (IMM) Date</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr"/>
-      <c r="D1110" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="D1110" t="inlineStr"/>
       <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1111" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMFEB</t>
-        </is>
-      </c>
+          <t>Thursday March 20 2025</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr"/>
       <c r="C1111" t="inlineStr"/>
-      <c r="D1111" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="D1111" t="inlineStr"/>
       <c r="E1111" t="inlineStr"/>
-      <c r="F1111" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="inlineStr"/>
     </row>
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMFEB</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr"/>
-      <c r="D1112" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D1112" t="inlineStr"/>
       <c r="E1112" t="inlineStr"/>
-      <c r="F1112" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Retail Sales YoYFEB</t>
+          <t>Net Long-term TIC FlowsJAN</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr"/>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>$72B</t>
         </is>
       </c>
       <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Business Inventories MoMJAN</t>
+          <t>Foreign Bond InvestmentJAN</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr"/>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>$-49.7B</t>
         </is>
       </c>
       <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexMAR</t>
+          <t>Overall Net Capital FlowsJAN</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr"/>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>$87.1B</t>
         </is>
       </c>
       <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
+      <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMJAN</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr"/>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1116" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$-310.9B</t>
+        </is>
+      </c>
+      <c r="E1116" t="inlineStr"/>
       <c r="F1116" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$ -390.0B</t>
         </is>
       </c>
       <c r="G1116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Initial Jobless ClaimsMAR/15</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr"/>
-      <c r="D1117" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
+      <c r="D1117" t="inlineStr"/>
       <c r="E1117" t="inlineStr"/>
       <c r="F1117" t="inlineStr"/>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Philadelphia Fed Manufacturing IndexMAR</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr"/>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>4.075%</t>
+          <t>18.1</t>
         </is>
       </c>
       <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
+      <c r="F1118" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Continuing Jobless ClaimsMAR/08</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr"/>
@@ -30963,15 +30843,23 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Tuesday March 18 2025</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageMAR/15</t>
+        </is>
+      </c>
       <c r="C1120" t="inlineStr"/>
       <c r="D1120" t="inlineStr"/>
       <c r="E1120" t="inlineStr"/>
       <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
+      <c r="G1120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
@@ -30981,24 +30869,20 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Building Permits PrelFEB</t>
+          <t>Philly Fed Business ConditionsMAR</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr"/>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>1.473M</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="E1121" t="inlineStr"/>
-      <c r="F1121" t="inlineStr">
-        <is>
-          <t>1.471M</t>
-        </is>
-      </c>
+      <c r="F1121" t="inlineStr"/>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31010,24 +30894,20 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Housing StartsFEB</t>
+          <t>Philly Fed CAPEX IndexMAR</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr"/>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>1.366M</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr">
-        <is>
-          <t>1.34M</t>
-        </is>
-      </c>
+      <c r="F1122" t="inlineStr"/>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31039,24 +30919,20 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelFEB</t>
+          <t>Philly Fed EmploymentMAR</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr"/>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1123" t="inlineStr"/>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31068,24 +30944,20 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Export Prices MoMFEB</t>
+          <t>Philly Fed New OrdersMAR</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr"/>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>21.9</t>
         </is>
       </c>
       <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31097,106 +30969,102 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Housing Starts MoMFEB</t>
+          <t>Philly Fed Prices PaidMAR</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr"/>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>40.50</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="F1125" t="inlineStr"/>
       <c r="G1125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Import Prices MoMFEB</t>
+          <t>Existing Home SalesFEB</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr"/>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.08M</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr"/>
       <c r="F1126" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>4.05M</t>
         </is>
       </c>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Export Prices YoYFEB</t>
+          <t>Existing Home Sales MoMFEB</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr"/>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="G1127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Import Prices YoYFEB</t>
+          <t>CB Leading Index MoMFEB</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr"/>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>5.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
@@ -31208,20 +31076,16 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Redbook YoYMAR/15</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr"/>
-      <c r="D1129" t="inlineStr">
-        <is>
-          <t>5.7%</t>
-        </is>
-      </c>
+      <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr"/>
       <c r="F1129" t="inlineStr"/>
       <c r="G1129" t="inlineStr">
@@ -31233,55 +31097,39 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Industrial Production MoMFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr"/>
-      <c r="D1130" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Capacity UtilizationFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr"/>
-      <c r="D1131" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
+      <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
           <t>3</t>
@@ -31291,26 +31139,18 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Industrial Production YoYFEB</t>
+          <t>15-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr"/>
-      <c r="D1132" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
           <t>3</t>
@@ -31320,26 +31160,18 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMFEB</t>
+          <t>30-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr"/>
-      <c r="D1133" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1133" t="inlineStr"/>
       <c r="G1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -31349,26 +31181,22 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYFEB</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr"/>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>2.243%</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -31378,45 +31206,29 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1135" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Friday March 21 2025</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr"/>
       <c r="C1135" t="inlineStr"/>
-      <c r="D1135" t="inlineStr">
-        <is>
-          <t>4.05%</t>
-        </is>
-      </c>
+      <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr"/>
       <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1135" t="inlineStr"/>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Fed Balance SheetMAR/19</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr">
-        <is>
-          <t>4.83%</t>
-        </is>
-      </c>
+      <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr"/>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr">
@@ -31428,1247 +31240,57 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>Wednesday March 19 2025</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountMAR/21</t>
+        </is>
+      </c>
       <c r="C1137" t="inlineStr"/>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAR/14</t>
+          <t>Baker Hughes Total Rigs CountMAR/21</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr">
-        <is>
-          <t>4.247M</t>
-        </is>
-      </c>
+      <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr"/>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/14</t>
-        </is>
-      </c>
+          <t>Saturday March 22 2025</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr"/>
       <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr">
-        <is>
-          <t>6.67%</t>
-        </is>
-      </c>
+      <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/14</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1140" t="inlineStr"/>
-      <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr">
-        <is>
-          <t>269.3</t>
-        </is>
-      </c>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr">
-        <is>
-          <t>911.3</t>
-        </is>
-      </c>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr">
-        <is>
-          <t>154.6</t>
-        </is>
-      </c>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr">
-        <is>
-          <t>1.448M</t>
-        </is>
-      </c>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr">
-        <is>
-          <t>-5.737M</t>
-        </is>
-      </c>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr">
-        <is>
-          <t>0.503M</t>
-        </is>
-      </c>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr">
-        <is>
-          <t>-1.228M</t>
-        </is>
-      </c>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr">
-        <is>
-          <t>-0.113M</t>
-        </is>
-      </c>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr">
-        <is>
-          <t>-1.559M</t>
-        </is>
-      </c>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr">
-        <is>
-          <t>-0.078M</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr">
-        <is>
-          <t>-0.183M</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr">
-        <is>
-          <t>0.321M</t>
-        </is>
-      </c>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr">
-        <is>
-          <t>FOMC Economic Projections</t>
-        </is>
-      </c>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 1st Yr</t>
-        </is>
-      </c>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 2nd Yr</t>
-        </is>
-      </c>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Current</t>
-        </is>
-      </c>
-      <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1159" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Longer</t>
-        </is>
-      </c>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1159" t="inlineStr"/>
-      <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr"/>
-      <c r="B1160" t="inlineStr">
-        <is>
-          <t>International Monetary Market (IMM) Date</t>
-        </is>
-      </c>
-      <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>Thursday March 20 2025</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1162" t="inlineStr"/>
-      <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
-      <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>$72B</t>
-        </is>
-      </c>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN</t>
-        </is>
-      </c>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>$-49.7B</t>
-        </is>
-      </c>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr">
-        <is>
-          <t>$87.1B</t>
-        </is>
-      </c>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr">
-        <is>
-          <t>$-310.9B</t>
-        </is>
-      </c>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr">
-        <is>
-          <t>$ -390.0B</t>
-        </is>
-      </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/15</t>
-        </is>
-      </c>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr"/>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>18.1</t>
-        </is>
-      </c>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/15</t>
-        </is>
-      </c>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAR</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAR</t>
-        </is>
-      </c>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAR</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>21.9</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAR</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>40.50</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>Existing Home SalesFEB</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>4.08M</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr">
-        <is>
-          <t>4.05M</t>
-        </is>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>2.243%</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>Friday March 21 2025</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr"/>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/19</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>Saturday March 22 2025</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1189"/>
+  <dimension ref="A1:G1139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29851,10 +29851,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1080" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -29884,10 +29882,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1081" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -29917,10 +29913,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -29950,10 +29944,8 @@
           <t>1910.0K</t>
         </is>
       </c>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -29983,10 +29975,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -30012,10 +30002,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1085" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1086">
@@ -30041,10 +30029,8 @@
           <t>148.1</t>
         </is>
       </c>
-      <c r="G1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -30070,10 +30056,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1087" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1088">
@@ -30099,10 +30083,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1088" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1089">
@@ -30132,10 +30114,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -30161,10 +30141,8 @@
         </is>
       </c>
       <c r="F1090" t="inlineStr"/>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -30186,10 +30164,8 @@
       </c>
       <c r="E1091" t="inlineStr"/>
       <c r="F1091" t="inlineStr"/>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -30211,10 +30187,8 @@
       </c>
       <c r="E1092" t="inlineStr"/>
       <c r="F1092" t="inlineStr"/>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -30236,10 +30210,8 @@
       </c>
       <c r="E1093" t="inlineStr"/>
       <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -30261,10 +30233,8 @@
       </c>
       <c r="E1094" t="inlineStr"/>
       <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -30286,40 +30256,50 @@
       </c>
       <c r="E1095" t="inlineStr"/>
       <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeMAR/14</t>
+        </is>
+      </c>
       <c r="C1096" t="inlineStr"/>
-      <c r="D1096" t="inlineStr"/>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>0.503M</t>
+        </is>
+      </c>
       <c r="E1096" t="inlineStr"/>
       <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/12</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr"/>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>$6.76T</t>
+          <t>-1.228M</t>
         </is>
       </c>
       <c r="E1097" t="inlineStr"/>
@@ -30333,59 +30313,47 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
+          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr"/>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1098" t="inlineStr">
-        <is>
-          <t>63.4</t>
-        </is>
-      </c>
-      <c r="F1098" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
+          <t>-0.113M</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr"/>
+      <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
+          <t>EIA Distillate Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr"/>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-1.559M</t>
         </is>
       </c>
       <c r="E1099" t="inlineStr"/>
-      <c r="F1099" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr">
         <is>
           <t>3</t>
@@ -30395,30 +30363,22 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
+          <t>EIA Gasoline Production ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr"/>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E1100" t="inlineStr">
-        <is>
-          <t>64.3</t>
-        </is>
-      </c>
-      <c r="F1100" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
+          <t>-0.078M</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr">
         <is>
           <t>3</t>
@@ -30428,30 +30388,22 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAR</t>
+          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr"/>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1101" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="F1101" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+          <t>-0.183M</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr">
         <is>
           <t>3</t>
@@ -30461,26 +30413,22 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
+          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr"/>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.321M</t>
         </is>
       </c>
       <c r="E1102" t="inlineStr"/>
-      <c r="F1102" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr">
         <is>
           <t>3</t>
@@ -30490,18 +30438,18 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr"/>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="E1103" t="inlineStr"/>
@@ -30515,391 +30463,371 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr"/>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="E1104" t="inlineStr"/>
-      <c r="F1104" t="inlineStr"/>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Saturday March 15 2025</t>
-        </is>
-      </c>
-      <c r="B1105" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>FOMC Economic Projections</t>
+        </is>
+      </c>
       <c r="C1105" t="inlineStr"/>
       <c r="D1105" t="inlineStr"/>
       <c r="E1105" t="inlineStr"/>
       <c r="F1105" t="inlineStr"/>
-      <c r="G1105" t="inlineStr"/>
+      <c r="G1105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B1106" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Interest Rate Projection - 1st Yr</t>
+        </is>
+      </c>
       <c r="C1106" t="inlineStr"/>
-      <c r="D1106" t="inlineStr"/>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="E1106" t="inlineStr"/>
       <c r="F1106" t="inlineStr"/>
-      <c r="G1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>Monday March 17 2025</t>
-        </is>
-      </c>
-      <c r="B1107" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Interest Rate Projection - 2nd Yr</t>
+        </is>
+      </c>
       <c r="C1107" t="inlineStr"/>
-      <c r="D1107" t="inlineStr"/>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1107" t="inlineStr"/>
       <c r="F1107" t="inlineStr"/>
-      <c r="G1107" t="inlineStr"/>
+      <c r="G1107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Retail Sales MoMFEB</t>
+          <t>Interest Rate Projection - Current</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr"/>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1108" t="inlineStr"/>
-      <c r="F1108" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexMAR</t>
+          <t>Interest Rate Projection - Longer</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr"/>
       <c r="D1109" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E1109" t="inlineStr"/>
-      <c r="F1109" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A1110" t="inlineStr"/>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMFEB</t>
+          <t>International Monetary Market (IMM) Date</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr"/>
-      <c r="D1110" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="D1110" t="inlineStr"/>
       <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1111" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMFEB</t>
-        </is>
-      </c>
+          <t>Thursday March 20 2025</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr"/>
       <c r="C1111" t="inlineStr"/>
-      <c r="D1111" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="D1111" t="inlineStr"/>
       <c r="E1111" t="inlineStr"/>
-      <c r="F1111" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="inlineStr"/>
     </row>
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMFEB</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr"/>
-      <c r="D1112" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D1112" t="inlineStr"/>
       <c r="E1112" t="inlineStr"/>
-      <c r="F1112" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Retail Sales YoYFEB</t>
+          <t>Net Long-term TIC FlowsJAN</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr"/>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>$72B</t>
         </is>
       </c>
       <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Business Inventories MoMJAN</t>
+          <t>Foreign Bond InvestmentJAN</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr"/>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>$-49.7B</t>
         </is>
       </c>
       <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexMAR</t>
+          <t>Overall Net Capital FlowsJAN</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr"/>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>$87.1B</t>
         </is>
       </c>
       <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
+      <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMJAN</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr"/>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1116" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$-310.9B</t>
+        </is>
+      </c>
+      <c r="E1116" t="inlineStr"/>
       <c r="F1116" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$ -390.0B</t>
         </is>
       </c>
       <c r="G1116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Initial Jobless ClaimsMAR/15</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr"/>
-      <c r="D1117" t="inlineStr">
-        <is>
-          <t>4.200%</t>
-        </is>
-      </c>
+      <c r="D1117" t="inlineStr"/>
       <c r="E1117" t="inlineStr"/>
       <c r="F1117" t="inlineStr"/>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Philadelphia Fed Manufacturing IndexMAR</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr"/>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>4.075%</t>
+          <t>18.1</t>
         </is>
       </c>
       <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
+      <c r="F1118" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Continuing Jobless ClaimsMAR/08</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr"/>
@@ -30915,15 +30843,23 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Tuesday March 18 2025</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageMAR/15</t>
+        </is>
+      </c>
       <c r="C1120" t="inlineStr"/>
       <c r="D1120" t="inlineStr"/>
       <c r="E1120" t="inlineStr"/>
       <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
+      <c r="G1120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
@@ -30933,24 +30869,20 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Building Permits PrelFEB</t>
+          <t>Philly Fed Business ConditionsMAR</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr"/>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>1.473M</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="E1121" t="inlineStr"/>
-      <c r="F1121" t="inlineStr">
-        <is>
-          <t>1.471M</t>
-        </is>
-      </c>
+      <c r="F1121" t="inlineStr"/>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -30962,24 +30894,20 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Housing StartsFEB</t>
+          <t>Philly Fed CAPEX IndexMAR</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr"/>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>1.366M</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr">
-        <is>
-          <t>1.34M</t>
-        </is>
-      </c>
+      <c r="F1122" t="inlineStr"/>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -30991,24 +30919,20 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelFEB</t>
+          <t>Philly Fed EmploymentMAR</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr"/>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1123" t="inlineStr"/>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31020,24 +30944,20 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Export Prices MoMFEB</t>
+          <t>Philly Fed New OrdersMAR</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr"/>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>21.9</t>
         </is>
       </c>
       <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31049,106 +30969,102 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Housing Starts MoMFEB</t>
+          <t>Philly Fed Prices PaidMAR</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr"/>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>40.50</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="F1125" t="inlineStr"/>
       <c r="G1125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Import Prices MoMFEB</t>
+          <t>Existing Home SalesFEB</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr"/>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.08M</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr"/>
       <c r="F1126" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>4.05M</t>
         </is>
       </c>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Export Prices YoYFEB</t>
+          <t>Existing Home Sales MoMFEB</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr"/>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="G1127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Import Prices YoYFEB</t>
+          <t>CB Leading Index MoMFEB</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr"/>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>5.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
@@ -31160,20 +31076,16 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Redbook YoYMAR/15</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr"/>
-      <c r="D1129" t="inlineStr">
-        <is>
-          <t>5.7%</t>
-        </is>
-      </c>
+      <c r="D1129" t="inlineStr"/>
       <c r="E1129" t="inlineStr"/>
       <c r="F1129" t="inlineStr"/>
       <c r="G1129" t="inlineStr">
@@ -31185,55 +31097,39 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Industrial Production MoMFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr"/>
-      <c r="D1130" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Capacity UtilizationFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr"/>
-      <c r="D1131" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
+      <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
           <t>3</t>
@@ -31243,26 +31139,18 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Industrial Production YoYFEB</t>
+          <t>15-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr"/>
-      <c r="D1132" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
           <t>3</t>
@@ -31272,26 +31160,18 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMFEB</t>
+          <t>30-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr"/>
-      <c r="D1133" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1133" t="inlineStr"/>
       <c r="G1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -31301,26 +31181,22 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYFEB</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr"/>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>2.243%</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -31330,45 +31206,29 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1135" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Friday March 21 2025</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr"/>
       <c r="C1135" t="inlineStr"/>
-      <c r="D1135" t="inlineStr">
-        <is>
-          <t>4.05%</t>
-        </is>
-      </c>
+      <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr"/>
       <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1135" t="inlineStr"/>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Fed Balance SheetMAR/19</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr">
-        <is>
-          <t>4.83%</t>
-        </is>
-      </c>
+      <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr"/>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr">
@@ -31380,1247 +31240,57 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>Wednesday March 19 2025</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountMAR/21</t>
+        </is>
+      </c>
       <c r="C1137" t="inlineStr"/>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAR/14</t>
+          <t>Baker Hughes Total Rigs CountMAR/21</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr">
-        <is>
-          <t>4.247M</t>
-        </is>
-      </c>
+      <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr"/>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/14</t>
-        </is>
-      </c>
+          <t>Saturday March 22 2025</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr"/>
       <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr">
-        <is>
-          <t>6.67%</t>
-        </is>
-      </c>
+      <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/14</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1140" t="inlineStr"/>
-      <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr">
-        <is>
-          <t>269.3</t>
-        </is>
-      </c>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr">
-        <is>
-          <t>911.3</t>
-        </is>
-      </c>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr">
-        <is>
-          <t>154.6</t>
-        </is>
-      </c>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr">
-        <is>
-          <t>1.448M</t>
-        </is>
-      </c>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr">
-        <is>
-          <t>-5.737M</t>
-        </is>
-      </c>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr">
-        <is>
-          <t>0.503M</t>
-        </is>
-      </c>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr">
-        <is>
-          <t>-1.228M</t>
-        </is>
-      </c>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr">
-        <is>
-          <t>-0.113M</t>
-        </is>
-      </c>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr">
-        <is>
-          <t>-1.559M</t>
-        </is>
-      </c>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr">
-        <is>
-          <t>-0.078M</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr">
-        <is>
-          <t>-0.183M</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr">
-        <is>
-          <t>0.321M</t>
-        </is>
-      </c>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr">
-        <is>
-          <t>FOMC Economic Projections</t>
-        </is>
-      </c>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 1st Yr</t>
-        </is>
-      </c>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 2nd Yr</t>
-        </is>
-      </c>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Current</t>
-        </is>
-      </c>
-      <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1159" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Longer</t>
-        </is>
-      </c>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1159" t="inlineStr"/>
-      <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr"/>
-      <c r="B1160" t="inlineStr">
-        <is>
-          <t>International Monetary Market (IMM) Date</t>
-        </is>
-      </c>
-      <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>Thursday March 20 2025</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1162" t="inlineStr"/>
-      <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
-      <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>$72B</t>
-        </is>
-      </c>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN</t>
-        </is>
-      </c>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>$-49.7B</t>
-        </is>
-      </c>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr">
-        <is>
-          <t>$87.1B</t>
-        </is>
-      </c>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr">
-        <is>
-          <t>$-310.9B</t>
-        </is>
-      </c>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr">
-        <is>
-          <t>$ -390.0B</t>
-        </is>
-      </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/15</t>
-        </is>
-      </c>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr"/>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr"/>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>18.1</t>
-        </is>
-      </c>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr"/>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr"/>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/15</t>
-        </is>
-      </c>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr"/>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr"/>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAR</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAR</t>
-        </is>
-      </c>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAR</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>21.9</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAR</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>40.50</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>Existing Home SalesFEB</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>4.08M</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr">
-        <is>
-          <t>4.05M</t>
-        </is>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>2.243%</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>Friday March 21 2025</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr"/>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/19</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>Saturday March 22 2025</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1189"/>
+  <dimension ref="A1:G1139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29855,10 +29855,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1080" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -29892,10 +29890,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1081" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -29929,10 +29925,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -29966,10 +29960,8 @@
           <t>1910.0K</t>
         </is>
       </c>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -30003,10 +29995,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -30036,10 +30026,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1085" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1086">
@@ -30069,10 +30057,8 @@
           <t>148.1</t>
         </is>
       </c>
-      <c r="G1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -30102,10 +30088,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1087" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1088">
@@ -30135,10 +30119,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1088" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1089">
@@ -30172,10 +30154,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -30201,10 +30181,8 @@
         </is>
       </c>
       <c r="F1090" t="inlineStr"/>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -30226,10 +30204,8 @@
       </c>
       <c r="E1091" t="inlineStr"/>
       <c r="F1091" t="inlineStr"/>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -30251,10 +30227,8 @@
       </c>
       <c r="E1092" t="inlineStr"/>
       <c r="F1092" t="inlineStr"/>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -30276,10 +30250,8 @@
       </c>
       <c r="E1093" t="inlineStr"/>
       <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -30301,10 +30273,8 @@
       </c>
       <c r="E1094" t="inlineStr"/>
       <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -30326,40 +30296,50 @@
       </c>
       <c r="E1095" t="inlineStr"/>
       <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>EIA Crude Oil Imports ChangeMAR/14</t>
+        </is>
+      </c>
       <c r="C1096" t="inlineStr"/>
-      <c r="D1096" t="inlineStr"/>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>0.503M</t>
+        </is>
+      </c>
       <c r="E1096" t="inlineStr"/>
       <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/12</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr"/>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>$6.76T</t>
+          <t>-1.228M</t>
         </is>
       </c>
       <c r="E1097" t="inlineStr"/>
@@ -30373,59 +30353,47 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
+          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr"/>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1098" t="inlineStr">
-        <is>
-          <t>63.4</t>
-        </is>
-      </c>
-      <c r="F1098" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
+          <t>-0.113M</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr"/>
+      <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
+          <t>EIA Distillate Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr"/>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-1.559M</t>
         </is>
       </c>
       <c r="E1099" t="inlineStr"/>
-      <c r="F1099" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr">
         <is>
           <t>3</t>
@@ -30435,30 +30403,22 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
+          <t>EIA Gasoline Production ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr"/>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E1100" t="inlineStr">
-        <is>
-          <t>64.3</t>
-        </is>
-      </c>
-      <c r="F1100" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
+          <t>-0.078M</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr">
         <is>
           <t>3</t>
@@ -30468,30 +30428,22 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAR</t>
+          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr"/>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1101" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="F1101" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+          <t>-0.183M</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr">
         <is>
           <t>3</t>
@@ -30501,26 +30453,22 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
+          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr"/>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>0.321M</t>
         </is>
       </c>
       <c r="E1102" t="inlineStr"/>
-      <c r="F1102" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr">
         <is>
           <t>3</t>
@@ -30530,18 +30478,18 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr"/>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="E1103" t="inlineStr"/>
@@ -30555,397 +30503,393 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
+          <t>Fed Interest Rate Decision</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr"/>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>592</t>
-        </is>
-      </c>
-      <c r="E1104" t="inlineStr"/>
-      <c r="F1104" t="inlineStr"/>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E1104" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="F1104" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
       <c r="G1104" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Saturday March 15 2025</t>
-        </is>
-      </c>
-      <c r="B1105" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>FOMC Economic Projections</t>
+        </is>
+      </c>
       <c r="C1105" t="inlineStr"/>
       <c r="D1105" t="inlineStr"/>
       <c r="E1105" t="inlineStr"/>
       <c r="F1105" t="inlineStr"/>
-      <c r="G1105" t="inlineStr"/>
+      <c r="G1105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B1106" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>Interest Rate Projection - 1st Yr</t>
+        </is>
+      </c>
       <c r="C1106" t="inlineStr"/>
-      <c r="D1106" t="inlineStr"/>
+      <c r="D1106" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="E1106" t="inlineStr"/>
       <c r="F1106" t="inlineStr"/>
-      <c r="G1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>Monday March 17 2025</t>
-        </is>
-      </c>
-      <c r="B1107" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Interest Rate Projection - 2nd Yr</t>
+        </is>
+      </c>
       <c r="C1107" t="inlineStr"/>
-      <c r="D1107" t="inlineStr"/>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>3.4%</t>
+        </is>
+      </c>
       <c r="E1107" t="inlineStr"/>
       <c r="F1107" t="inlineStr"/>
-      <c r="G1107" t="inlineStr"/>
+      <c r="G1107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Retail Sales MoMFEB</t>
+          <t>Interest Rate Projection - Current</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr"/>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1108" t="inlineStr"/>
-      <c r="F1108" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexMAR</t>
+          <t>Interest Rate Projection - Longer</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr"/>
       <c r="D1109" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E1109" t="inlineStr"/>
-      <c r="F1109" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1110">
-      <c r="A1110" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A1110" t="inlineStr"/>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMFEB</t>
+          <t>International Monetary Market (IMM) Date</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr"/>
-      <c r="D1110" t="inlineStr">
-        <is>
-          <t>-0.8%</t>
-        </is>
-      </c>
+      <c r="D1110" t="inlineStr"/>
       <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1111">
       <c r="A1111" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1111" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Autos MoMFEB</t>
-        </is>
-      </c>
+          <t>Thursday March 20 2025</t>
+        </is>
+      </c>
+      <c r="B1111" t="inlineStr"/>
       <c r="C1111" t="inlineStr"/>
-      <c r="D1111" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
+      <c r="D1111" t="inlineStr"/>
       <c r="E1111" t="inlineStr"/>
-      <c r="F1111" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="F1111" t="inlineStr"/>
+      <c r="G1111" t="inlineStr"/>
     </row>
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1112" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Gas/Autos MoMFEB</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1112" t="inlineStr"/>
-      <c r="D1112" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D1112" t="inlineStr"/>
       <c r="E1112" t="inlineStr"/>
-      <c r="F1112" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="F1112" t="inlineStr"/>
       <c r="G1112" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Retail Sales YoYFEB</t>
+          <t>Net Long-term TIC FlowsJAN</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr"/>
       <c r="D1113" t="inlineStr">
         <is>
-          <t>4.2%</t>
+          <t>$72B</t>
         </is>
       </c>
       <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Business Inventories MoMJAN</t>
+          <t>Foreign Bond InvestmentJAN</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr"/>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>$-49.7B</t>
         </is>
       </c>
       <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexMAR</t>
+          <t>Overall Net Capital FlowsJAN</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr"/>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>$87.1B</t>
         </is>
       </c>
       <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
+      <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMJAN</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr"/>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1116" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$-310.9B</t>
+        </is>
+      </c>
+      <c r="E1116" t="inlineStr"/>
       <c r="F1116" t="inlineStr">
         <is>
-          <t>0.4%</t>
+          <t>$ -390.0B</t>
         </is>
       </c>
       <c r="G1116" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Initial Jobless ClaimsMAR/15</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr"/>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>220K</t>
         </is>
       </c>
       <c r="E1117" t="inlineStr"/>
-      <c r="F1117" t="inlineStr"/>
+      <c r="F1117" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Philadelphia Fed Manufacturing IndexMAR</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr"/>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>4.075%</t>
+          <t>18.1</t>
         </is>
       </c>
       <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
+      <c r="F1118" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Continuing Jobless ClaimsMAR/08</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr"/>
-      <c r="D1119" t="inlineStr"/>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>1870K</t>
+        </is>
+      </c>
       <c r="E1119" t="inlineStr"/>
-      <c r="F1119" t="inlineStr"/>
+      <c r="F1119" t="inlineStr">
+        <is>
+          <t>1880.0K</t>
+        </is>
+      </c>
       <c r="G1119" t="inlineStr">
         <is>
           <t>3</t>
@@ -30955,15 +30899,31 @@
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Tuesday March 18 2025</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>Jobless Claims 4-week AverageMAR/15</t>
+        </is>
+      </c>
       <c r="C1120" t="inlineStr"/>
-      <c r="D1120" t="inlineStr"/>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>226K</t>
+        </is>
+      </c>
       <c r="E1120" t="inlineStr"/>
-      <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
+      <c r="F1120" t="inlineStr">
+        <is>
+          <t>229.0K</t>
+        </is>
+      </c>
+      <c r="G1120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
@@ -30973,24 +30933,20 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Building Permits PrelFEB</t>
+          <t>Philly Fed Business ConditionsMAR</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr"/>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>1.473M</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="E1121" t="inlineStr"/>
-      <c r="F1121" t="inlineStr">
-        <is>
-          <t>1.471M</t>
-        </is>
-      </c>
+      <c r="F1121" t="inlineStr"/>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31002,24 +30958,20 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Housing StartsFEB</t>
+          <t>Philly Fed CAPEX IndexMAR</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr"/>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>1.366M</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr">
-        <is>
-          <t>1.34M</t>
-        </is>
-      </c>
+      <c r="F1122" t="inlineStr"/>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31031,24 +30983,20 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelFEB</t>
+          <t>Philly Fed EmploymentMAR</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr"/>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1123" t="inlineStr"/>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31060,24 +31008,20 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Export Prices MoMFEB</t>
+          <t>Philly Fed New OrdersMAR</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr"/>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>21.9</t>
         </is>
       </c>
       <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31089,106 +31033,102 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Housing Starts MoMFEB</t>
+          <t>Philly Fed Prices PaidMAR</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr"/>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>40.50</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="F1125" t="inlineStr"/>
       <c r="G1125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1126">
       <c r="A1126" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Import Prices MoMFEB</t>
+          <t>Existing Home SalesFEB</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr"/>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>4.08M</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr"/>
       <c r="F1126" t="inlineStr">
         <is>
-          <t>3.4%</t>
+          <t>4.05M</t>
         </is>
       </c>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Export Prices YoYFEB</t>
+          <t>Existing Home Sales MoMFEB</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr"/>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="G1127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Import Prices YoYFEB</t>
+          <t>CB Leading Index MoMFEB</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr"/>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>5.1%</t>
+          <t>-0.2%</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
@@ -31200,18 +31140,18 @@
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Redbook YoYMAR/15</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>-62Bcf</t>
         </is>
       </c>
       <c r="E1129" t="inlineStr"/>
@@ -31225,55 +31165,39 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Industrial Production MoMFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr"/>
-      <c r="D1130" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="D1130" t="inlineStr"/>
       <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Capacity UtilizationFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr"/>
-      <c r="D1131" t="inlineStr">
-        <is>
-          <t>77.8%</t>
-        </is>
-      </c>
+      <c r="D1131" t="inlineStr"/>
       <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
           <t>3</t>
@@ -31283,26 +31207,18 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Industrial Production YoYFEB</t>
+          <t>15-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr"/>
-      <c r="D1132" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="D1132" t="inlineStr"/>
       <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
           <t>3</t>
@@ -31312,26 +31228,18 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMFEB</t>
+          <t>30-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr"/>
-      <c r="D1133" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="D1133" t="inlineStr"/>
       <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1133" t="inlineStr"/>
       <c r="G1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -31341,26 +31249,22 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYFEB</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr"/>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>2.243%</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -31370,45 +31274,29 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1135" t="inlineStr">
-        <is>
-          <t>52-Week Bill Auction</t>
-        </is>
-      </c>
+          <t>Friday March 21 2025</t>
+        </is>
+      </c>
+      <c r="B1135" t="inlineStr"/>
       <c r="C1135" t="inlineStr"/>
-      <c r="D1135" t="inlineStr">
-        <is>
-          <t>4.05%</t>
-        </is>
-      </c>
+      <c r="D1135" t="inlineStr"/>
       <c r="E1135" t="inlineStr"/>
       <c r="F1135" t="inlineStr"/>
-      <c r="G1135" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1135" t="inlineStr"/>
     </row>
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>02:00 AM</t>
         </is>
       </c>
       <c r="B1136" t="inlineStr">
         <is>
-          <t>20-Year Bond Auction</t>
+          <t>Fed Balance SheetMAR/19</t>
         </is>
       </c>
       <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr">
-        <is>
-          <t>4.83%</t>
-        </is>
-      </c>
+      <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr"/>
       <c r="F1136" t="inlineStr"/>
       <c r="G1136" t="inlineStr">
@@ -31420,1271 +31308,57 @@
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>Wednesday March 19 2025</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr"/>
+          <t>10:30 PM</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Baker Hughes Oil Rig CountMAR/21</t>
+        </is>
+      </c>
       <c r="C1137" t="inlineStr"/>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAR/14</t>
+          <t>Baker Hughes Total Rigs CountMAR/21</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr">
-        <is>
-          <t>4.247M</t>
-        </is>
-      </c>
+      <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr"/>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1139" t="inlineStr">
-        <is>
-          <t>MBA 30-Year Mortgage RateMAR/14</t>
-        </is>
-      </c>
+          <t>Saturday March 22 2025</t>
+        </is>
+      </c>
+      <c r="B1139" t="inlineStr"/>
       <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr">
-        <is>
-          <t>6.67%</t>
-        </is>
-      </c>
+      <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
-      <c r="G1139" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1140">
-      <c r="A1140" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/14</t>
-        </is>
-      </c>
-      <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
-      <c r="E1140" t="inlineStr"/>
-      <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr">
-        <is>
-          <t>269.3</t>
-        </is>
-      </c>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr">
-        <is>
-          <t>911.3</t>
-        </is>
-      </c>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr">
-        <is>
-          <t>154.6</t>
-        </is>
-      </c>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr">
-        <is>
-          <t>1.448M</t>
-        </is>
-      </c>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr">
-        <is>
-          <t>-5.737M</t>
-        </is>
-      </c>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr">
-        <is>
-          <t>0.503M</t>
-        </is>
-      </c>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr">
-        <is>
-          <t>-1.228M</t>
-        </is>
-      </c>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr">
-        <is>
-          <t>-0.113M</t>
-        </is>
-      </c>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr">
-        <is>
-          <t>-1.559M</t>
-        </is>
-      </c>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr">
-        <is>
-          <t>-0.078M</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr">
-        <is>
-          <t>-0.183M</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr">
-        <is>
-          <t>0.321M</t>
-        </is>
-      </c>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr">
-        <is>
-          <t>FOMC Economic Projections</t>
-        </is>
-      </c>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 1st Yr</t>
-        </is>
-      </c>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 2nd Yr</t>
-        </is>
-      </c>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Current</t>
-        </is>
-      </c>
-      <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1159" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Longer</t>
-        </is>
-      </c>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1159" t="inlineStr"/>
-      <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr"/>
-      <c r="B1160" t="inlineStr">
-        <is>
-          <t>International Monetary Market (IMM) Date</t>
-        </is>
-      </c>
-      <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>Thursday March 20 2025</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1162" t="inlineStr"/>
-      <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
-      <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>$72B</t>
-        </is>
-      </c>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN</t>
-        </is>
-      </c>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>$-49.7B</t>
-        </is>
-      </c>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr">
-        <is>
-          <t>$87.1B</t>
-        </is>
-      </c>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr">
-        <is>
-          <t>$-310.9B</t>
-        </is>
-      </c>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr">
-        <is>
-          <t>$ -390.0B</t>
-        </is>
-      </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/15</t>
-        </is>
-      </c>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr">
-        <is>
-          <t>220K</t>
-        </is>
-      </c>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>18.1</t>
-        </is>
-      </c>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr">
-        <is>
-          <t>1870K</t>
-        </is>
-      </c>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr">
-        <is>
-          <t>1880.0K</t>
-        </is>
-      </c>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/15</t>
-        </is>
-      </c>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr">
-        <is>
-          <t>226K</t>
-        </is>
-      </c>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr">
-        <is>
-          <t>229.0K</t>
-        </is>
-      </c>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAR</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAR</t>
-        </is>
-      </c>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAR</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>21.9</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAR</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>40.50</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>Existing Home SalesFEB</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>4.08M</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr">
-        <is>
-          <t>4.05M</t>
-        </is>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr"/>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr"/>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr"/>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr"/>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr"/>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>2.243%</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>Friday March 21 2025</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr"/>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/19</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>Saturday March 22 2025</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
+      <c r="G1139" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1189"/>
+  <dimension ref="A1:G1140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29855,10 +29855,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1080" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -29892,10 +29890,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1081" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -29929,10 +29925,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -29966,10 +29960,8 @@
           <t>1910.0K</t>
         </is>
       </c>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -30003,10 +29995,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -30036,10 +30026,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1085" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1086">
@@ -30069,10 +30057,8 @@
           <t>148.1</t>
         </is>
       </c>
-      <c r="G1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -30102,10 +30088,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1087" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1088">
@@ -30135,10 +30119,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1088" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1089">
@@ -30172,10 +30154,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -30205,10 +30185,8 @@
         </is>
       </c>
       <c r="F1090" t="inlineStr"/>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -30234,10 +30212,8 @@
       </c>
       <c r="E1091" t="inlineStr"/>
       <c r="F1091" t="inlineStr"/>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -30263,10 +30239,8 @@
       </c>
       <c r="E1092" t="inlineStr"/>
       <c r="F1092" t="inlineStr"/>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -30292,10 +30266,8 @@
       </c>
       <c r="E1093" t="inlineStr"/>
       <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -30321,10 +30293,8 @@
       </c>
       <c r="E1094" t="inlineStr"/>
       <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -30350,40 +30320,50 @@
       </c>
       <c r="E1095" t="inlineStr"/>
       <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeMAR/14</t>
+        </is>
+      </c>
       <c r="C1096" t="inlineStr"/>
-      <c r="D1096" t="inlineStr"/>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>-5.737M</t>
+        </is>
+      </c>
       <c r="E1096" t="inlineStr"/>
       <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/12</t>
+          <t>EIA Crude Oil Imports ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr"/>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>$6.76T</t>
+          <t>0.503M</t>
         </is>
       </c>
       <c r="E1097" t="inlineStr"/>
@@ -30397,59 +30377,47 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr"/>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1098" t="inlineStr">
-        <is>
-          <t>63.1</t>
-        </is>
-      </c>
-      <c r="F1098" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
+          <t>-1.228M</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr"/>
+      <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
+          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr"/>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-0.113M</t>
         </is>
       </c>
       <c r="E1099" t="inlineStr"/>
-      <c r="F1099" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr">
         <is>
           <t>3</t>
@@ -30459,30 +30427,22 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
+          <t>EIA Distillate Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr"/>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E1100" t="inlineStr">
-        <is>
-          <t>64.3</t>
-        </is>
-      </c>
-      <c r="F1100" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
+          <t>-1.559M</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr">
         <is>
           <t>3</t>
@@ -30492,30 +30452,22 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAR</t>
+          <t>EIA Gasoline Production ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr"/>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1101" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="F1101" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+          <t>-0.078M</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr">
         <is>
           <t>3</t>
@@ -30525,26 +30477,22 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
+          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr"/>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-0.183M</t>
         </is>
       </c>
       <c r="E1102" t="inlineStr"/>
-      <c r="F1102" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr">
         <is>
           <t>3</t>
@@ -30554,18 +30502,18 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
+          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr"/>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>0.321M</t>
         </is>
       </c>
       <c r="E1103" t="inlineStr"/>
@@ -30579,18 +30527,18 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr"/>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="E1104" t="inlineStr"/>
@@ -30604,243 +30552,227 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Saturday March 15 2025</t>
-        </is>
-      </c>
-      <c r="B1105" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Fed Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="C1105" t="inlineStr"/>
-      <c r="D1105" t="inlineStr"/>
-      <c r="E1105" t="inlineStr"/>
-      <c r="F1105" t="inlineStr"/>
-      <c r="G1105" t="inlineStr"/>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E1105" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="F1105" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="G1105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B1106" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>FOMC Economic Projections</t>
+        </is>
+      </c>
       <c r="C1106" t="inlineStr"/>
       <c r="D1106" t="inlineStr"/>
       <c r="E1106" t="inlineStr"/>
       <c r="F1106" t="inlineStr"/>
-      <c r="G1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>Monday March 17 2025</t>
-        </is>
-      </c>
-      <c r="B1107" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Interest Rate Projection - 1st Yr</t>
+        </is>
+      </c>
       <c r="C1107" t="inlineStr"/>
-      <c r="D1107" t="inlineStr"/>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="E1107" t="inlineStr"/>
       <c r="F1107" t="inlineStr"/>
-      <c r="G1107" t="inlineStr"/>
+      <c r="G1107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Retail Sales MoMFEB</t>
+          <t>Interest Rate Projection - 2nd Yr</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr"/>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E1108" t="inlineStr"/>
-      <c r="F1108" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexMAR</t>
+          <t>Interest Rate Projection - Current</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr"/>
       <c r="D1109" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1109" t="inlineStr"/>
-      <c r="F1109" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMFEB</t>
+          <t>Interest Rate Projection - Longer</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr"/>
       <c r="D1110" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1111">
-      <c r="A1111" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A1111" t="inlineStr"/>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMFEB</t>
+          <t>International Monetary Market (IMM) Date</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr"/>
-      <c r="D1111" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1111" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1111" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1111" t="inlineStr"/>
+      <c r="E1111" t="inlineStr"/>
+      <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1112" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMFEB</t>
-        </is>
-      </c>
+          <t>Thursday March 20 2025</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr"/>
       <c r="C1112" t="inlineStr"/>
-      <c r="D1112" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D1112" t="inlineStr"/>
       <c r="E1112" t="inlineStr"/>
-      <c r="F1112" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1112" t="inlineStr"/>
+      <c r="G1112" t="inlineStr"/>
     </row>
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Retail Sales YoYFEB</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr"/>
-      <c r="D1113" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D1113" t="inlineStr"/>
       <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Business Inventories MoMJAN</t>
+          <t>Net Long-term TIC FlowsJAN</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr"/>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>$72B</t>
         </is>
       </c>
       <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr">
         <is>
           <t>2</t>
@@ -30850,59 +30782,47 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexMAR</t>
+          <t>Foreign Bond InvestmentJAN</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr"/>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>$-49.7B</t>
         </is>
       </c>
       <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
+      <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMJAN</t>
+          <t>Overall Net Capital FlowsJAN</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr"/>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1116" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1116" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$87.1B</t>
+        </is>
+      </c>
+      <c r="E1116" t="inlineStr"/>
+      <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr">
         <is>
           <t>3</t>
@@ -30912,86 +30832,118 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr"/>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>$-310.9B</t>
         </is>
       </c>
       <c r="E1117" t="inlineStr"/>
-      <c r="F1117" t="inlineStr"/>
+      <c r="F1117" t="inlineStr">
+        <is>
+          <t>$ -390.0B</t>
+        </is>
+      </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Initial Jobless ClaimsMAR/15</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr"/>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>4.075%</t>
+          <t>220K</t>
         </is>
       </c>
       <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
+      <c r="F1118" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Philadelphia Fed Manufacturing IndexMAR</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr"/>
-      <c r="D1119" t="inlineStr"/>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>18.1</t>
+        </is>
+      </c>
       <c r="E1119" t="inlineStr"/>
-      <c r="F1119" t="inlineStr"/>
+      <c r="F1119" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Tuesday March 18 2025</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsMAR/08</t>
+        </is>
+      </c>
       <c r="C1120" t="inlineStr"/>
-      <c r="D1120" t="inlineStr"/>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>1870K</t>
+        </is>
+      </c>
       <c r="E1120" t="inlineStr"/>
-      <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
+      <c r="F1120" t="inlineStr">
+        <is>
+          <t>1880.0K</t>
+        </is>
+      </c>
+      <c r="G1120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
@@ -31001,24 +30953,24 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Building Permits PrelFEB</t>
+          <t>Jobless Claims 4-week AverageMAR/15</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr"/>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>1.473M</t>
+          <t>226K</t>
         </is>
       </c>
       <c r="E1121" t="inlineStr"/>
       <c r="F1121" t="inlineStr">
         <is>
-          <t>1.471M</t>
+          <t>229.0K</t>
         </is>
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31030,24 +30982,20 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Housing StartsFEB</t>
+          <t>Philly Fed Business ConditionsMAR</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr"/>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>1.366M</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr">
-        <is>
-          <t>1.34M</t>
-        </is>
-      </c>
+      <c r="F1122" t="inlineStr"/>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31059,24 +31007,20 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelFEB</t>
+          <t>Philly Fed CAPEX IndexMAR</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr"/>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1123" t="inlineStr"/>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31088,24 +31032,20 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Export Prices MoMFEB</t>
+          <t>Philly Fed EmploymentMAR</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr"/>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31117,24 +31057,20 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Housing Starts MoMFEB</t>
+          <t>Philly Fed New OrdersMAR</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr"/>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>21.9</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="F1125" t="inlineStr"/>
       <c r="G1125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31146,104 +31082,104 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Import Prices MoMFEB</t>
+          <t>Philly Fed Prices PaidMAR</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr"/>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>40.50</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr"/>
-      <c r="F1126" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Export Prices YoYFEB</t>
+          <t>Existing Home SalesFEB</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>4.08M</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr"/>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.05M</t>
         </is>
       </c>
       <c r="G1127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Import Prices YoYFEB</t>
+          <t>Existing Home Sales MoMFEB</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr"/>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>5.1%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Redbook YoYMAR/15</t>
+          <t>CB Leading Index MoMFEB</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1129" t="inlineStr"/>
-      <c r="F1129" t="inlineStr"/>
+      <c r="F1129" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G1129" t="inlineStr">
         <is>
           <t>3</t>
@@ -31253,55 +31189,47 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Industrial Production MoMFEB</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-62Bcf</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Capacity UtilizationFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
           <t>3</t>
@@ -31311,26 +31239,22 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Industrial Production YoYFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr"/>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
           <t>3</t>
@@ -31340,26 +31264,22 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMFEB</t>
+          <t>15-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr"/>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1133" t="inlineStr"/>
       <c r="G1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -31369,26 +31289,22 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYFEB</t>
+          <t>30-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr"/>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>6.65%</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -31398,18 +31314,18 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr"/>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>4.05%</t>
+          <t>2.243%</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr"/>
@@ -31423,1316 +31339,91 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1136" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
+          <t>Friday March 21 2025</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr"/>
       <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr">
-        <is>
-          <t>4.83%</t>
-        </is>
-      </c>
+      <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr"/>
       <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1136" t="inlineStr"/>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>Wednesday March 19 2025</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr"/>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetMAR/19</t>
+        </is>
+      </c>
       <c r="C1137" t="inlineStr"/>
       <c r="D1137" t="inlineStr"/>
       <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAR/14</t>
+          <t>Baker Hughes Oil Rig CountMAR/21</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr">
-        <is>
-          <t>4.247M</t>
-        </is>
-      </c>
+      <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr"/>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAR/14</t>
+          <t>Baker Hughes Total Rigs CountMAR/21</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr">
-        <is>
-          <t>6.67%</t>
-        </is>
-      </c>
+      <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/14</t>
-        </is>
-      </c>
+          <t>Saturday March 22 2025</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr"/>
       <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr">
-        <is>
-          <t>269.3</t>
-        </is>
-      </c>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr">
-        <is>
-          <t>911.3</t>
-        </is>
-      </c>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr">
-        <is>
-          <t>154.6</t>
-        </is>
-      </c>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr">
-        <is>
-          <t>1.448M</t>
-        </is>
-      </c>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr">
-        <is>
-          <t>-5.737M</t>
-        </is>
-      </c>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr">
-        <is>
-          <t>0.503M</t>
-        </is>
-      </c>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr">
-        <is>
-          <t>-1.228M</t>
-        </is>
-      </c>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr">
-        <is>
-          <t>-0.113M</t>
-        </is>
-      </c>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr">
-        <is>
-          <t>-1.559M</t>
-        </is>
-      </c>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr">
-        <is>
-          <t>-0.078M</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr">
-        <is>
-          <t>-0.183M</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr">
-        <is>
-          <t>0.321M</t>
-        </is>
-      </c>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr">
-        <is>
-          <t>FOMC Economic Projections</t>
-        </is>
-      </c>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 1st Yr</t>
-        </is>
-      </c>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 2nd Yr</t>
-        </is>
-      </c>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Current</t>
-        </is>
-      </c>
-      <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1159" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Longer</t>
-        </is>
-      </c>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1159" t="inlineStr"/>
-      <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr"/>
-      <c r="B1160" t="inlineStr">
-        <is>
-          <t>International Monetary Market (IMM) Date</t>
-        </is>
-      </c>
-      <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>Thursday March 20 2025</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1162" t="inlineStr"/>
-      <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
-      <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>$72B</t>
-        </is>
-      </c>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN</t>
-        </is>
-      </c>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>$-49.7B</t>
-        </is>
-      </c>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr">
-        <is>
-          <t>$87.1B</t>
-        </is>
-      </c>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr">
-        <is>
-          <t>$-310.9B</t>
-        </is>
-      </c>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr">
-        <is>
-          <t>$ -390.0B</t>
-        </is>
-      </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/15</t>
-        </is>
-      </c>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr">
-        <is>
-          <t>220K</t>
-        </is>
-      </c>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>18.1</t>
-        </is>
-      </c>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr">
-        <is>
-          <t>1870K</t>
-        </is>
-      </c>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr">
-        <is>
-          <t>1880.0K</t>
-        </is>
-      </c>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/15</t>
-        </is>
-      </c>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr">
-        <is>
-          <t>226K</t>
-        </is>
-      </c>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr">
-        <is>
-          <t>229.0K</t>
-        </is>
-      </c>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAR</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAR</t>
-        </is>
-      </c>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAR</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>21.9</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAR</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>40.50</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>Existing Home SalesFEB</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>4.08M</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr">
-        <is>
-          <t>4.05M</t>
-        </is>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr">
-        <is>
-          <t>-62Bcf</t>
-        </is>
-      </c>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr">
-        <is>
-          <t>5.8%</t>
-        </is>
-      </c>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr">
-        <is>
-          <t>6.65%</t>
-        </is>
-      </c>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>2.243%</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>Friday March 21 2025</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr"/>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/19</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>Saturday March 22 2025</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-03-22.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G1189"/>
+  <dimension ref="A1:G1140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29855,10 +29855,8 @@
           <t>0.3%</t>
         </is>
       </c>
-      <c r="G1080" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="G1080" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="1081">
@@ -29892,10 +29890,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1081" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1081" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1082">
@@ -29929,10 +29925,8 @@
           <t>230.0K</t>
         </is>
       </c>
-      <c r="G1082" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="G1082" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1083">
@@ -29966,10 +29960,8 @@
           <t>1910.0K</t>
         </is>
       </c>
-      <c r="G1083" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1083" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1084">
@@ -30003,10 +29995,8 @@
           <t>3.5%</t>
         </is>
       </c>
-      <c r="G1084" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1084" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1085">
@@ -30036,10 +30026,8 @@
           <t>228.0K</t>
         </is>
       </c>
-      <c r="G1085" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1085" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1086">
@@ -30069,10 +30057,8 @@
           <t>148.1</t>
         </is>
       </c>
-      <c r="G1086" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1086" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1087">
@@ -30102,10 +30088,8 @@
           <t>0.2%</t>
         </is>
       </c>
-      <c r="G1087" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1087" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1088">
@@ -30135,10 +30119,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1088" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1088" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1089">
@@ -30172,10 +30154,8 @@
           <t>3.4%</t>
         </is>
       </c>
-      <c r="G1089" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1089" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1090">
@@ -30205,10 +30185,8 @@
         </is>
       </c>
       <c r="F1090" t="inlineStr"/>
-      <c r="G1090" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1090" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1091">
@@ -30234,10 +30212,8 @@
       </c>
       <c r="E1091" t="inlineStr"/>
       <c r="F1091" t="inlineStr"/>
-      <c r="G1091" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1091" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1092">
@@ -30263,10 +30239,8 @@
       </c>
       <c r="E1092" t="inlineStr"/>
       <c r="F1092" t="inlineStr"/>
-      <c r="G1092" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1092" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1093">
@@ -30292,10 +30266,8 @@
       </c>
       <c r="E1093" t="inlineStr"/>
       <c r="F1093" t="inlineStr"/>
-      <c r="G1093" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1093" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1094">
@@ -30321,10 +30293,8 @@
       </c>
       <c r="E1094" t="inlineStr"/>
       <c r="F1094" t="inlineStr"/>
-      <c r="G1094" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1094" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1095">
@@ -30350,40 +30320,50 @@
       </c>
       <c r="E1095" t="inlineStr"/>
       <c r="F1095" t="inlineStr"/>
-      <c r="G1095" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="G1095" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="1096">
       <c r="A1096" t="inlineStr">
         <is>
-          <t>Friday March 14 2025</t>
-        </is>
-      </c>
-      <c r="B1096" t="inlineStr"/>
+          <t>08:00 PM</t>
+        </is>
+      </c>
+      <c r="B1096" t="inlineStr">
+        <is>
+          <t>EIA Gasoline Stocks ChangeMAR/14</t>
+        </is>
+      </c>
       <c r="C1096" t="inlineStr"/>
-      <c r="D1096" t="inlineStr"/>
+      <c r="D1096" t="inlineStr">
+        <is>
+          <t>-5.737M</t>
+        </is>
+      </c>
       <c r="E1096" t="inlineStr"/>
       <c r="F1096" t="inlineStr"/>
-      <c r="G1096" t="inlineStr"/>
+      <c r="G1096" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
     </row>
     <row r="1097">
       <c r="A1097" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1097" t="inlineStr">
         <is>
-          <t>Fed Balance SheetMAR/12</t>
+          <t>EIA Crude Oil Imports ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1097" t="inlineStr"/>
       <c r="D1097" t="inlineStr">
         <is>
-          <t>$6.76T</t>
+          <t>0.503M</t>
         </is>
       </c>
       <c r="E1097" t="inlineStr"/>
@@ -30397,59 +30377,47 @@
     <row r="1098">
       <c r="A1098" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1098" t="inlineStr">
         <is>
-          <t>Michigan Consumer Sentiment PrelMAR</t>
+          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1098" t="inlineStr"/>
       <c r="D1098" t="inlineStr">
         <is>
-          <t>64.7</t>
-        </is>
-      </c>
-      <c r="E1098" t="inlineStr">
-        <is>
-          <t>63.1</t>
-        </is>
-      </c>
-      <c r="F1098" t="inlineStr">
-        <is>
-          <t>63.2</t>
-        </is>
-      </c>
+          <t>-1.228M</t>
+        </is>
+      </c>
+      <c r="E1098" t="inlineStr"/>
+      <c r="F1098" t="inlineStr"/>
       <c r="G1098" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1099">
       <c r="A1099" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Michigan 5 Year Inflation Expectations PrelMAR</t>
+          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr"/>
       <c r="D1099" t="inlineStr">
         <is>
-          <t>3.5%</t>
+          <t>-0.113M</t>
         </is>
       </c>
       <c r="E1099" t="inlineStr"/>
-      <c r="F1099" t="inlineStr">
-        <is>
-          <t>3.6%</t>
-        </is>
-      </c>
+      <c r="F1099" t="inlineStr"/>
       <c r="G1099" t="inlineStr">
         <is>
           <t>3</t>
@@ -30459,30 +30427,22 @@
     <row r="1100">
       <c r="A1100" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>Michigan Consumer Expectations PrelMAR</t>
+          <t>EIA Distillate Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr"/>
       <c r="D1100" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="E1100" t="inlineStr">
-        <is>
-          <t>64.3</t>
-        </is>
-      </c>
-      <c r="F1100" t="inlineStr">
-        <is>
-          <t>63.5</t>
-        </is>
-      </c>
+          <t>-1.559M</t>
+        </is>
+      </c>
+      <c r="E1100" t="inlineStr"/>
+      <c r="F1100" t="inlineStr"/>
       <c r="G1100" t="inlineStr">
         <is>
           <t>3</t>
@@ -30492,30 +30452,22 @@
     <row r="1101">
       <c r="A1101" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Michigan Current Conditions PrelMAR</t>
+          <t>EIA Gasoline Production ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1101" t="inlineStr"/>
       <c r="D1101" t="inlineStr">
         <is>
-          <t>65.7</t>
-        </is>
-      </c>
-      <c r="E1101" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="F1101" t="inlineStr">
-        <is>
-          <t>64.4</t>
-        </is>
-      </c>
+          <t>-0.078M</t>
+        </is>
+      </c>
+      <c r="E1101" t="inlineStr"/>
+      <c r="F1101" t="inlineStr"/>
       <c r="G1101" t="inlineStr">
         <is>
           <t>3</t>
@@ -30525,26 +30477,22 @@
     <row r="1102">
       <c r="A1102" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Michigan Inflation Expectations PrelMAR</t>
+          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1102" t="inlineStr"/>
       <c r="D1102" t="inlineStr">
         <is>
-          <t>4.3%</t>
+          <t>-0.183M</t>
         </is>
       </c>
       <c r="E1102" t="inlineStr"/>
-      <c r="F1102" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
+      <c r="F1102" t="inlineStr"/>
       <c r="G1102" t="inlineStr">
         <is>
           <t>3</t>
@@ -30554,18 +30502,18 @@
     <row r="1103">
       <c r="A1103" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Baker Hughes Oil Rig CountMAR/14</t>
+          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1103" t="inlineStr"/>
       <c r="D1103" t="inlineStr">
         <is>
-          <t>486</t>
+          <t>0.321M</t>
         </is>
       </c>
       <c r="E1103" t="inlineStr"/>
@@ -30579,18 +30527,18 @@
     <row r="1104">
       <c r="A1104" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Baker Hughes Total Rigs CountMAR/14</t>
+          <t>17-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1104" t="inlineStr"/>
       <c r="D1104" t="inlineStr">
         <is>
-          <t>592</t>
+          <t>4.180%</t>
         </is>
       </c>
       <c r="E1104" t="inlineStr"/>
@@ -30604,243 +30552,227 @@
     <row r="1105">
       <c r="A1105" t="inlineStr">
         <is>
-          <t>Saturday March 15 2025</t>
-        </is>
-      </c>
-      <c r="B1105" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1105" t="inlineStr">
+        <is>
+          <t>Fed Interest Rate Decision</t>
+        </is>
+      </c>
       <c r="C1105" t="inlineStr"/>
-      <c r="D1105" t="inlineStr"/>
-      <c r="E1105" t="inlineStr"/>
-      <c r="F1105" t="inlineStr"/>
-      <c r="G1105" t="inlineStr"/>
+      <c r="D1105" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="E1105" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="F1105" t="inlineStr">
+        <is>
+          <t>4.5%</t>
+        </is>
+      </c>
+      <c r="G1105" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1106">
       <c r="A1106" t="inlineStr">
         <is>
-          <t>Sunday March 16 2025</t>
-        </is>
-      </c>
-      <c r="B1106" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1106" t="inlineStr">
+        <is>
+          <t>FOMC Economic Projections</t>
+        </is>
+      </c>
       <c r="C1106" t="inlineStr"/>
       <c r="D1106" t="inlineStr"/>
       <c r="E1106" t="inlineStr"/>
       <c r="F1106" t="inlineStr"/>
-      <c r="G1106" t="inlineStr"/>
+      <c r="G1106" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
     </row>
     <row r="1107">
       <c r="A1107" t="inlineStr">
         <is>
-          <t>Monday March 17 2025</t>
-        </is>
-      </c>
-      <c r="B1107" t="inlineStr"/>
+          <t>11:30 PM</t>
+        </is>
+      </c>
+      <c r="B1107" t="inlineStr">
+        <is>
+          <t>Interest Rate Projection - 1st Yr</t>
+        </is>
+      </c>
       <c r="C1107" t="inlineStr"/>
-      <c r="D1107" t="inlineStr"/>
+      <c r="D1107" t="inlineStr">
+        <is>
+          <t>3.9%</t>
+        </is>
+      </c>
       <c r="E1107" t="inlineStr"/>
       <c r="F1107" t="inlineStr"/>
-      <c r="G1107" t="inlineStr"/>
+      <c r="G1107" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1108">
       <c r="A1108" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Retail Sales MoMFEB</t>
+          <t>Interest Rate Projection - 2nd Yr</t>
         </is>
       </c>
       <c r="C1108" t="inlineStr"/>
       <c r="D1108" t="inlineStr">
         <is>
-          <t>-0.9%</t>
+          <t>3.4%</t>
         </is>
       </c>
       <c r="E1108" t="inlineStr"/>
-      <c r="F1108" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
+      <c r="F1108" t="inlineStr"/>
       <c r="G1108" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1109">
       <c r="A1109" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1109" t="inlineStr">
         <is>
-          <t>NY Empire State Manufacturing IndexMAR</t>
+          <t>Interest Rate Projection - Current</t>
         </is>
       </c>
       <c r="C1109" t="inlineStr"/>
       <c r="D1109" t="inlineStr">
         <is>
-          <t>5.7</t>
+          <t>4.4%</t>
         </is>
       </c>
       <c r="E1109" t="inlineStr"/>
-      <c r="F1109" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
+      <c r="F1109" t="inlineStr"/>
       <c r="G1109" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1110">
       <c r="A1110" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>11:30 PM</t>
         </is>
       </c>
       <c r="B1110" t="inlineStr">
         <is>
-          <t>Retail Sales Control Group MoMFEB</t>
+          <t>Interest Rate Projection - Longer</t>
         </is>
       </c>
       <c r="C1110" t="inlineStr"/>
       <c r="D1110" t="inlineStr">
         <is>
-          <t>-0.8%</t>
+          <t>3%</t>
         </is>
       </c>
       <c r="E1110" t="inlineStr"/>
-      <c r="F1110" t="inlineStr">
-        <is>
-          <t>0.3%</t>
-        </is>
-      </c>
+      <c r="F1110" t="inlineStr"/>
       <c r="G1110" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1111">
-      <c r="A1111" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
+      <c r="A1111" t="inlineStr"/>
       <c r="B1111" t="inlineStr">
         <is>
-          <t>Retail Sales Ex Autos MoMFEB</t>
+          <t>International Monetary Market (IMM) Date</t>
         </is>
       </c>
       <c r="C1111" t="inlineStr"/>
-      <c r="D1111" t="inlineStr">
-        <is>
-          <t>-0.4%</t>
-        </is>
-      </c>
-      <c r="E1111" t="inlineStr">
-        <is>
-          <t>0.5%</t>
-        </is>
-      </c>
-      <c r="F1111" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
+      <c r="D1111" t="inlineStr"/>
+      <c r="E1111" t="inlineStr"/>
+      <c r="F1111" t="inlineStr"/>
       <c r="G1111" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1112">
       <c r="A1112" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1112" t="inlineStr">
-        <is>
-          <t>Retail Sales Ex Gas/Autos MoMFEB</t>
-        </is>
-      </c>
+          <t>Thursday March 20 2025</t>
+        </is>
+      </c>
+      <c r="B1112" t="inlineStr"/>
       <c r="C1112" t="inlineStr"/>
-      <c r="D1112" t="inlineStr">
-        <is>
-          <t>-0.5%</t>
-        </is>
-      </c>
+      <c r="D1112" t="inlineStr"/>
       <c r="E1112" t="inlineStr"/>
-      <c r="F1112" t="inlineStr">
-        <is>
-          <t>0.2%</t>
-        </is>
-      </c>
-      <c r="G1112" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="F1112" t="inlineStr"/>
+      <c r="G1112" t="inlineStr"/>
     </row>
     <row r="1113">
       <c r="A1113" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>12:00 AM</t>
         </is>
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Retail Sales YoYFEB</t>
+          <t>Fed Press Conference</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr"/>
-      <c r="D1113" t="inlineStr">
-        <is>
-          <t>4.2%</t>
-        </is>
-      </c>
+      <c r="D1113" t="inlineStr"/>
       <c r="E1113" t="inlineStr"/>
-      <c r="F1113" t="inlineStr">
-        <is>
-          <t>3.5%</t>
-        </is>
-      </c>
+      <c r="F1113" t="inlineStr"/>
       <c r="G1113" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1114">
       <c r="A1114" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Business Inventories MoMJAN</t>
+          <t>Net Long-term TIC FlowsJAN</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr"/>
       <c r="D1114" t="inlineStr">
         <is>
-          <t>-0.2%</t>
+          <t>$72B</t>
         </is>
       </c>
       <c r="E1114" t="inlineStr"/>
-      <c r="F1114" t="inlineStr">
-        <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
+      <c r="F1114" t="inlineStr"/>
       <c r="G1114" t="inlineStr">
         <is>
           <t>2</t>
@@ -30850,59 +30782,47 @@
     <row r="1115">
       <c r="A1115" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1115" t="inlineStr">
         <is>
-          <t>NAHB Housing Market IndexMAR</t>
+          <t>Foreign Bond InvestmentJAN</t>
         </is>
       </c>
       <c r="C1115" t="inlineStr"/>
       <c r="D1115" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>$-49.7B</t>
         </is>
       </c>
       <c r="E1115" t="inlineStr"/>
-      <c r="F1115" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
+      <c r="F1115" t="inlineStr"/>
       <c r="G1115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1116">
       <c r="A1116" t="inlineStr">
         <is>
-          <t>07:30 PM</t>
+          <t>01:30 AM</t>
         </is>
       </c>
       <c r="B1116" t="inlineStr">
         <is>
-          <t>Retail Inventories Ex Autos MoMJAN</t>
+          <t>Overall Net Capital FlowsJAN</t>
         </is>
       </c>
       <c r="C1116" t="inlineStr"/>
       <c r="D1116" t="inlineStr">
         <is>
-          <t>-0.1%</t>
-        </is>
-      </c>
-      <c r="E1116" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
-      <c r="F1116" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+          <t>$87.1B</t>
+        </is>
+      </c>
+      <c r="E1116" t="inlineStr"/>
+      <c r="F1116" t="inlineStr"/>
       <c r="G1116" t="inlineStr">
         <is>
           <t>3</t>
@@ -30912,86 +30832,118 @@
     <row r="1117">
       <c r="A1117" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1117" t="inlineStr">
         <is>
-          <t>3-Month Bill Auction</t>
+          <t>Current AccountQ4</t>
         </is>
       </c>
       <c r="C1117" t="inlineStr"/>
       <c r="D1117" t="inlineStr">
         <is>
-          <t>4.200%</t>
+          <t>$-310.9B</t>
         </is>
       </c>
       <c r="E1117" t="inlineStr"/>
-      <c r="F1117" t="inlineStr"/>
+      <c r="F1117" t="inlineStr">
+        <is>
+          <t>$ -390.0B</t>
+        </is>
+      </c>
       <c r="G1117" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1118">
       <c r="A1118" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1118" t="inlineStr">
         <is>
-          <t>6-Month Bill Auction</t>
+          <t>Initial Jobless ClaimsMAR/15</t>
         </is>
       </c>
       <c r="C1118" t="inlineStr"/>
       <c r="D1118" t="inlineStr">
         <is>
-          <t>4.075%</t>
+          <t>220K</t>
         </is>
       </c>
       <c r="E1118" t="inlineStr"/>
-      <c r="F1118" t="inlineStr"/>
+      <c r="F1118" t="inlineStr">
+        <is>
+          <t>225.0K</t>
+        </is>
+      </c>
       <c r="G1118" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1119">
       <c r="A1119" t="inlineStr">
         <is>
-          <t>09:30 PM</t>
+          <t>06:00 PM</t>
         </is>
       </c>
       <c r="B1119" t="inlineStr">
         <is>
-          <t>NOPA Crush Report</t>
+          <t>Philadelphia Fed Manufacturing IndexMAR</t>
         </is>
       </c>
       <c r="C1119" t="inlineStr"/>
-      <c r="D1119" t="inlineStr"/>
+      <c r="D1119" t="inlineStr">
+        <is>
+          <t>18.1</t>
+        </is>
+      </c>
       <c r="E1119" t="inlineStr"/>
-      <c r="F1119" t="inlineStr"/>
+      <c r="F1119" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
       <c r="G1119" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1120">
       <c r="A1120" t="inlineStr">
         <is>
-          <t>Tuesday March 18 2025</t>
-        </is>
-      </c>
-      <c r="B1120" t="inlineStr"/>
+          <t>06:00 PM</t>
+        </is>
+      </c>
+      <c r="B1120" t="inlineStr">
+        <is>
+          <t>Continuing Jobless ClaimsMAR/08</t>
+        </is>
+      </c>
       <c r="C1120" t="inlineStr"/>
-      <c r="D1120" t="inlineStr"/>
+      <c r="D1120" t="inlineStr">
+        <is>
+          <t>1870K</t>
+        </is>
+      </c>
       <c r="E1120" t="inlineStr"/>
-      <c r="F1120" t="inlineStr"/>
-      <c r="G1120" t="inlineStr"/>
+      <c r="F1120" t="inlineStr">
+        <is>
+          <t>1880.0K</t>
+        </is>
+      </c>
+      <c r="G1120" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1121">
       <c r="A1121" t="inlineStr">
@@ -31001,24 +30953,24 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>Building Permits PrelFEB</t>
+          <t>Jobless Claims 4-week AverageMAR/15</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr"/>
       <c r="D1121" t="inlineStr">
         <is>
-          <t>1.473M</t>
+          <t>226K</t>
         </is>
       </c>
       <c r="E1121" t="inlineStr"/>
       <c r="F1121" t="inlineStr">
         <is>
-          <t>1.471M</t>
+          <t>229.0K</t>
         </is>
       </c>
       <c r="G1121" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31030,24 +30982,20 @@
       </c>
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Housing StartsFEB</t>
+          <t>Philly Fed Business ConditionsMAR</t>
         </is>
       </c>
       <c r="C1122" t="inlineStr"/>
       <c r="D1122" t="inlineStr">
         <is>
-          <t>1.366M</t>
+          <t>27.8</t>
         </is>
       </c>
       <c r="E1122" t="inlineStr"/>
-      <c r="F1122" t="inlineStr">
-        <is>
-          <t>1.34M</t>
-        </is>
-      </c>
+      <c r="F1122" t="inlineStr"/>
       <c r="G1122" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31059,24 +31007,20 @@
       </c>
       <c r="B1123" t="inlineStr">
         <is>
-          <t>Building Permits MoM PrelFEB</t>
+          <t>Philly Fed CAPEX IndexMAR</t>
         </is>
       </c>
       <c r="C1123" t="inlineStr"/>
       <c r="D1123" t="inlineStr">
         <is>
-          <t>-0.6%</t>
+          <t>14.00</t>
         </is>
       </c>
       <c r="E1123" t="inlineStr"/>
-      <c r="F1123" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
+      <c r="F1123" t="inlineStr"/>
       <c r="G1123" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31088,24 +31032,20 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>Export Prices MoMFEB</t>
+          <t>Philly Fed EmploymentMAR</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr"/>
       <c r="D1124" t="inlineStr">
         <is>
-          <t>1.3%</t>
+          <t>5.3</t>
         </is>
       </c>
       <c r="E1124" t="inlineStr"/>
-      <c r="F1124" t="inlineStr">
-        <is>
-          <t>2%</t>
-        </is>
-      </c>
+      <c r="F1124" t="inlineStr"/>
       <c r="G1124" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31117,24 +31057,20 @@
       </c>
       <c r="B1125" t="inlineStr">
         <is>
-          <t>Housing Starts MoMFEB</t>
+          <t>Philly Fed New OrdersMAR</t>
         </is>
       </c>
       <c r="C1125" t="inlineStr"/>
       <c r="D1125" t="inlineStr">
         <is>
-          <t>-9.8%</t>
+          <t>21.9</t>
         </is>
       </c>
       <c r="E1125" t="inlineStr"/>
-      <c r="F1125" t="inlineStr">
-        <is>
-          <t>-1.9%</t>
-        </is>
-      </c>
+      <c r="F1125" t="inlineStr"/>
       <c r="G1125" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -31146,104 +31082,104 @@
       </c>
       <c r="B1126" t="inlineStr">
         <is>
-          <t>Import Prices MoMFEB</t>
+          <t>Philly Fed Prices PaidMAR</t>
         </is>
       </c>
       <c r="C1126" t="inlineStr"/>
       <c r="D1126" t="inlineStr">
         <is>
-          <t>0.3%</t>
+          <t>40.50</t>
         </is>
       </c>
       <c r="E1126" t="inlineStr"/>
-      <c r="F1126" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
+      <c r="F1126" t="inlineStr"/>
       <c r="G1126" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1127">
       <c r="A1127" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>Export Prices YoYFEB</t>
+          <t>Existing Home SalesFEB</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr"/>
       <c r="D1127" t="inlineStr">
         <is>
-          <t>2.7%</t>
+          <t>4.08M</t>
         </is>
       </c>
       <c r="E1127" t="inlineStr"/>
       <c r="F1127" t="inlineStr">
         <is>
-          <t>4.0%</t>
+          <t>4.05M</t>
         </is>
       </c>
       <c r="G1127" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="1128">
       <c r="A1128" t="inlineStr">
         <is>
-          <t>06:00 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>Import Prices YoYFEB</t>
+          <t>Existing Home Sales MoMFEB</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr"/>
       <c r="D1128" t="inlineStr">
         <is>
-          <t>1.9%</t>
+          <t>-4.9%</t>
         </is>
       </c>
       <c r="E1128" t="inlineStr"/>
       <c r="F1128" t="inlineStr">
         <is>
-          <t>5.1%</t>
+          <t>-0.7%</t>
         </is>
       </c>
       <c r="G1128" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="1129">
       <c r="A1129" t="inlineStr">
         <is>
-          <t>06:25 PM</t>
+          <t>07:30 PM</t>
         </is>
       </c>
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Redbook YoYMAR/15</t>
+          <t>CB Leading Index MoMFEB</t>
         </is>
       </c>
       <c r="C1129" t="inlineStr"/>
       <c r="D1129" t="inlineStr">
         <is>
-          <t>5.7%</t>
+          <t>-0.3%</t>
         </is>
       </c>
       <c r="E1129" t="inlineStr"/>
-      <c r="F1129" t="inlineStr"/>
+      <c r="F1129" t="inlineStr">
+        <is>
+          <t>-0.2%</t>
+        </is>
+      </c>
       <c r="G1129" t="inlineStr">
         <is>
           <t>3</t>
@@ -31253,55 +31189,47 @@
     <row r="1130">
       <c r="A1130" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>08:00 PM</t>
         </is>
       </c>
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Industrial Production MoMFEB</t>
+          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
         </is>
       </c>
       <c r="C1130" t="inlineStr"/>
       <c r="D1130" t="inlineStr">
         <is>
-          <t>0.5%</t>
+          <t>-62Bcf</t>
         </is>
       </c>
       <c r="E1130" t="inlineStr"/>
-      <c r="F1130" t="inlineStr">
-        <is>
-          <t>0.4%</t>
-        </is>
-      </c>
+      <c r="F1130" t="inlineStr"/>
       <c r="G1130" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1131">
       <c r="A1131" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1131" t="inlineStr">
         <is>
-          <t>Capacity UtilizationFEB</t>
+          <t>4-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1131" t="inlineStr"/>
       <c r="D1131" t="inlineStr">
         <is>
-          <t>77.8%</t>
+          <t>4.225%</t>
         </is>
       </c>
       <c r="E1131" t="inlineStr"/>
-      <c r="F1131" t="inlineStr">
-        <is>
-          <t>77.7%</t>
-        </is>
-      </c>
+      <c r="F1131" t="inlineStr"/>
       <c r="G1131" t="inlineStr">
         <is>
           <t>3</t>
@@ -31311,26 +31239,22 @@
     <row r="1132">
       <c r="A1132" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:00 PM</t>
         </is>
       </c>
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Industrial Production YoYFEB</t>
+          <t>8-Week Bill Auction</t>
         </is>
       </c>
       <c r="C1132" t="inlineStr"/>
       <c r="D1132" t="inlineStr">
         <is>
-          <t>2%</t>
+          <t>4.220%</t>
         </is>
       </c>
       <c r="E1132" t="inlineStr"/>
-      <c r="F1132" t="inlineStr">
-        <is>
-          <t>2.3%</t>
-        </is>
-      </c>
+      <c r="F1132" t="inlineStr"/>
       <c r="G1132" t="inlineStr">
         <is>
           <t>3</t>
@@ -31340,26 +31264,22 @@
     <row r="1133">
       <c r="A1133" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1133" t="inlineStr">
         <is>
-          <t>Manufacturing Production MoMFEB</t>
+          <t>15-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C1133" t="inlineStr"/>
       <c r="D1133" t="inlineStr">
         <is>
-          <t>-0.1%</t>
+          <t>5.8%</t>
         </is>
       </c>
       <c r="E1133" t="inlineStr"/>
-      <c r="F1133" t="inlineStr">
-        <is>
-          <t>0.1%</t>
-        </is>
-      </c>
+      <c r="F1133" t="inlineStr"/>
       <c r="G1133" t="inlineStr">
         <is>
           <t>3</t>
@@ -31369,26 +31289,22 @@
     <row r="1134">
       <c r="A1134" t="inlineStr">
         <is>
-          <t>06:45 PM</t>
+          <t>09:30 PM</t>
         </is>
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Manufacturing Production YoYFEB</t>
+          <t>30-Year Mortgage RateMAR/20</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr"/>
       <c r="D1134" t="inlineStr">
         <is>
-          <t>1%</t>
+          <t>6.65%</t>
         </is>
       </c>
       <c r="E1134" t="inlineStr"/>
-      <c r="F1134" t="inlineStr">
-        <is>
-          <t>1.3%</t>
-        </is>
-      </c>
+      <c r="F1134" t="inlineStr"/>
       <c r="G1134" t="inlineStr">
         <is>
           <t>3</t>
@@ -31398,18 +31314,18 @@
     <row r="1135">
       <c r="A1135" t="inlineStr">
         <is>
-          <t>09:00 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>52-Week Bill Auction</t>
+          <t>10-Year TIPS Auction</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr"/>
       <c r="D1135" t="inlineStr">
         <is>
-          <t>4.05%</t>
+          <t>2.243%</t>
         </is>
       </c>
       <c r="E1135" t="inlineStr"/>
@@ -31423,1316 +31339,95 @@
     <row r="1136">
       <c r="A1136" t="inlineStr">
         <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1136" t="inlineStr">
-        <is>
-          <t>20-Year Bond Auction</t>
-        </is>
-      </c>
+          <t>Friday March 21 2025</t>
+        </is>
+      </c>
+      <c r="B1136" t="inlineStr"/>
       <c r="C1136" t="inlineStr"/>
-      <c r="D1136" t="inlineStr">
-        <is>
-          <t>4.83%</t>
-        </is>
-      </c>
+      <c r="D1136" t="inlineStr"/>
       <c r="E1136" t="inlineStr"/>
       <c r="F1136" t="inlineStr"/>
-      <c r="G1136" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
+      <c r="G1136" t="inlineStr"/>
     </row>
     <row r="1137">
       <c r="A1137" t="inlineStr">
         <is>
-          <t>Wednesday March 19 2025</t>
-        </is>
-      </c>
-      <c r="B1137" t="inlineStr"/>
+          <t>02:00 AM</t>
+        </is>
+      </c>
+      <c r="B1137" t="inlineStr">
+        <is>
+          <t>Fed Balance SheetMAR/19</t>
+        </is>
+      </c>
       <c r="C1137" t="inlineStr"/>
-      <c r="D1137" t="inlineStr"/>
+      <c r="D1137" t="inlineStr">
+        <is>
+          <t>$6.76T</t>
+        </is>
+      </c>
       <c r="E1137" t="inlineStr"/>
       <c r="F1137" t="inlineStr"/>
-      <c r="G1137" t="inlineStr"/>
+      <c r="G1137" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
     </row>
     <row r="1138">
       <c r="A1138" t="inlineStr">
         <is>
-          <t>02:00 AM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1138" t="inlineStr">
         <is>
-          <t>API Crude Oil Stock ChangeMAR/14</t>
+          <t>Baker Hughes Oil Rig CountMAR/21</t>
         </is>
       </c>
       <c r="C1138" t="inlineStr"/>
-      <c r="D1138" t="inlineStr">
-        <is>
-          <t>4.247M</t>
-        </is>
-      </c>
+      <c r="D1138" t="inlineStr"/>
       <c r="E1138" t="inlineStr"/>
       <c r="F1138" t="inlineStr"/>
       <c r="G1138" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1139">
       <c r="A1139" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
+          <t>10:30 PM</t>
         </is>
       </c>
       <c r="B1139" t="inlineStr">
         <is>
-          <t>MBA 30-Year Mortgage RateMAR/14</t>
+          <t>Baker Hughes Total Rigs CountMAR/21</t>
         </is>
       </c>
       <c r="C1139" t="inlineStr"/>
-      <c r="D1139" t="inlineStr">
-        <is>
-          <t>6.67%</t>
-        </is>
-      </c>
+      <c r="D1139" t="inlineStr"/>
       <c r="E1139" t="inlineStr"/>
       <c r="F1139" t="inlineStr"/>
       <c r="G1139" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="1140">
       <c r="A1140" t="inlineStr">
         <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1140" t="inlineStr">
-        <is>
-          <t>MBA Mortgage ApplicationsMAR/14</t>
-        </is>
-      </c>
+          <t>Saturday March 22 2025</t>
+        </is>
+      </c>
+      <c r="B1140" t="inlineStr"/>
       <c r="C1140" t="inlineStr"/>
-      <c r="D1140" t="inlineStr">
-        <is>
-          <t>11.2%</t>
-        </is>
-      </c>
+      <c r="D1140" t="inlineStr"/>
       <c r="E1140" t="inlineStr"/>
       <c r="F1140" t="inlineStr"/>
-      <c r="G1140" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1141">
-      <c r="A1141" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1141" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Market IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1141" t="inlineStr"/>
-      <c r="D1141" t="inlineStr">
-        <is>
-          <t>269.3</t>
-        </is>
-      </c>
-      <c r="E1141" t="inlineStr"/>
-      <c r="F1141" t="inlineStr"/>
-      <c r="G1141" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1142">
-      <c r="A1142" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1142" t="inlineStr">
-        <is>
-          <t>MBA Mortgage Refinance IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1142" t="inlineStr"/>
-      <c r="D1142" t="inlineStr">
-        <is>
-          <t>911.3</t>
-        </is>
-      </c>
-      <c r="E1142" t="inlineStr"/>
-      <c r="F1142" t="inlineStr"/>
-      <c r="G1142" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1143">
-      <c r="A1143" t="inlineStr">
-        <is>
-          <t>04:30 PM</t>
-        </is>
-      </c>
-      <c r="B1143" t="inlineStr">
-        <is>
-          <t>MBA Purchase IndexMAR/14</t>
-        </is>
-      </c>
-      <c r="C1143" t="inlineStr"/>
-      <c r="D1143" t="inlineStr">
-        <is>
-          <t>154.6</t>
-        </is>
-      </c>
-      <c r="E1143" t="inlineStr"/>
-      <c r="F1143" t="inlineStr"/>
-      <c r="G1143" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1144">
-      <c r="A1144" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1144" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1144" t="inlineStr"/>
-      <c r="D1144" t="inlineStr">
-        <is>
-          <t>1.448M</t>
-        </is>
-      </c>
-      <c r="E1144" t="inlineStr"/>
-      <c r="F1144" t="inlineStr"/>
-      <c r="G1144" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1145">
-      <c r="A1145" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1145" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1145" t="inlineStr"/>
-      <c r="D1145" t="inlineStr">
-        <is>
-          <t>-5.737M</t>
-        </is>
-      </c>
-      <c r="E1145" t="inlineStr"/>
-      <c r="F1145" t="inlineStr"/>
-      <c r="G1145" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1146">
-      <c r="A1146" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1146" t="inlineStr">
-        <is>
-          <t>EIA Crude Oil Imports ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1146" t="inlineStr"/>
-      <c r="D1146" t="inlineStr">
-        <is>
-          <t>0.503M</t>
-        </is>
-      </c>
-      <c r="E1146" t="inlineStr"/>
-      <c r="F1146" t="inlineStr"/>
-      <c r="G1146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1147">
-      <c r="A1147" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1147" t="inlineStr">
-        <is>
-          <t>EIA Cushing Crude Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1147" t="inlineStr"/>
-      <c r="D1147" t="inlineStr">
-        <is>
-          <t>-1.228M</t>
-        </is>
-      </c>
-      <c r="E1147" t="inlineStr"/>
-      <c r="F1147" t="inlineStr"/>
-      <c r="G1147" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1148">
-      <c r="A1148" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1148" t="inlineStr">
-        <is>
-          <t>EIA Distillate Fuel Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1148" t="inlineStr"/>
-      <c r="D1148" t="inlineStr">
-        <is>
-          <t>-0.113M</t>
-        </is>
-      </c>
-      <c r="E1148" t="inlineStr"/>
-      <c r="F1148" t="inlineStr"/>
-      <c r="G1148" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1149">
-      <c r="A1149" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1149" t="inlineStr">
-        <is>
-          <t>EIA Distillate Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1149" t="inlineStr"/>
-      <c r="D1149" t="inlineStr">
-        <is>
-          <t>-1.559M</t>
-        </is>
-      </c>
-      <c r="E1149" t="inlineStr"/>
-      <c r="F1149" t="inlineStr"/>
-      <c r="G1149" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1150">
-      <c r="A1150" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1150" t="inlineStr">
-        <is>
-          <t>EIA Gasoline Production ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1150" t="inlineStr"/>
-      <c r="D1150" t="inlineStr">
-        <is>
-          <t>-0.078M</t>
-        </is>
-      </c>
-      <c r="E1150" t="inlineStr"/>
-      <c r="F1150" t="inlineStr"/>
-      <c r="G1150" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1151">
-      <c r="A1151" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1151" t="inlineStr">
-        <is>
-          <t>EIA Heating Oil Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1151" t="inlineStr"/>
-      <c r="D1151" t="inlineStr">
-        <is>
-          <t>-0.183M</t>
-        </is>
-      </c>
-      <c r="E1151" t="inlineStr"/>
-      <c r="F1151" t="inlineStr"/>
-      <c r="G1151" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1152">
-      <c r="A1152" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1152" t="inlineStr">
-        <is>
-          <t>EIA Refinery Crude Runs ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1152" t="inlineStr"/>
-      <c r="D1152" t="inlineStr">
-        <is>
-          <t>0.321M</t>
-        </is>
-      </c>
-      <c r="E1152" t="inlineStr"/>
-      <c r="F1152" t="inlineStr"/>
-      <c r="G1152" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1153">
-      <c r="A1153" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1153" t="inlineStr">
-        <is>
-          <t>17-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1153" t="inlineStr"/>
-      <c r="D1153" t="inlineStr">
-        <is>
-          <t>4.180%</t>
-        </is>
-      </c>
-      <c r="E1153" t="inlineStr"/>
-      <c r="F1153" t="inlineStr"/>
-      <c r="G1153" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1154">
-      <c r="A1154" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1154" t="inlineStr">
-        <is>
-          <t>Fed Interest Rate Decision</t>
-        </is>
-      </c>
-      <c r="C1154" t="inlineStr"/>
-      <c r="D1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="E1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="F1154" t="inlineStr">
-        <is>
-          <t>4.5%</t>
-        </is>
-      </c>
-      <c r="G1154" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1155">
-      <c r="A1155" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1155" t="inlineStr">
-        <is>
-          <t>FOMC Economic Projections</t>
-        </is>
-      </c>
-      <c r="C1155" t="inlineStr"/>
-      <c r="D1155" t="inlineStr"/>
-      <c r="E1155" t="inlineStr"/>
-      <c r="F1155" t="inlineStr"/>
-      <c r="G1155" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1156">
-      <c r="A1156" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1156" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 1st Yr</t>
-        </is>
-      </c>
-      <c r="C1156" t="inlineStr"/>
-      <c r="D1156" t="inlineStr">
-        <is>
-          <t>3.9%</t>
-        </is>
-      </c>
-      <c r="E1156" t="inlineStr"/>
-      <c r="F1156" t="inlineStr"/>
-      <c r="G1156" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1157">
-      <c r="A1157" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1157" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - 2nd Yr</t>
-        </is>
-      </c>
-      <c r="C1157" t="inlineStr"/>
-      <c r="D1157" t="inlineStr">
-        <is>
-          <t>3.4%</t>
-        </is>
-      </c>
-      <c r="E1157" t="inlineStr"/>
-      <c r="F1157" t="inlineStr"/>
-      <c r="G1157" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1158">
-      <c r="A1158" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1158" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Current</t>
-        </is>
-      </c>
-      <c r="C1158" t="inlineStr"/>
-      <c r="D1158" t="inlineStr">
-        <is>
-          <t>4.4%</t>
-        </is>
-      </c>
-      <c r="E1158" t="inlineStr"/>
-      <c r="F1158" t="inlineStr"/>
-      <c r="G1158" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1159">
-      <c r="A1159" t="inlineStr">
-        <is>
-          <t>11:30 PM</t>
-        </is>
-      </c>
-      <c r="B1159" t="inlineStr">
-        <is>
-          <t>Interest Rate Projection - Longer</t>
-        </is>
-      </c>
-      <c r="C1159" t="inlineStr"/>
-      <c r="D1159" t="inlineStr">
-        <is>
-          <t>3%</t>
-        </is>
-      </c>
-      <c r="E1159" t="inlineStr"/>
-      <c r="F1159" t="inlineStr"/>
-      <c r="G1159" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1160">
-      <c r="A1160" t="inlineStr"/>
-      <c r="B1160" t="inlineStr">
-        <is>
-          <t>International Monetary Market (IMM) Date</t>
-        </is>
-      </c>
-      <c r="C1160" t="inlineStr"/>
-      <c r="D1160" t="inlineStr"/>
-      <c r="E1160" t="inlineStr"/>
-      <c r="F1160" t="inlineStr"/>
-      <c r="G1160" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1161">
-      <c r="A1161" t="inlineStr">
-        <is>
-          <t>Thursday March 20 2025</t>
-        </is>
-      </c>
-      <c r="B1161" t="inlineStr"/>
-      <c r="C1161" t="inlineStr"/>
-      <c r="D1161" t="inlineStr"/>
-      <c r="E1161" t="inlineStr"/>
-      <c r="F1161" t="inlineStr"/>
-      <c r="G1161" t="inlineStr"/>
-    </row>
-    <row r="1162">
-      <c r="A1162" t="inlineStr">
-        <is>
-          <t>12:00 AM</t>
-        </is>
-      </c>
-      <c r="B1162" t="inlineStr">
-        <is>
-          <t>Fed Press Conference</t>
-        </is>
-      </c>
-      <c r="C1162" t="inlineStr"/>
-      <c r="D1162" t="inlineStr"/>
-      <c r="E1162" t="inlineStr"/>
-      <c r="F1162" t="inlineStr"/>
-      <c r="G1162" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1163">
-      <c r="A1163" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1163" t="inlineStr">
-        <is>
-          <t>Net Long-term TIC FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1163" t="inlineStr"/>
-      <c r="D1163" t="inlineStr">
-        <is>
-          <t>$72B</t>
-        </is>
-      </c>
-      <c r="E1163" t="inlineStr"/>
-      <c r="F1163" t="inlineStr"/>
-      <c r="G1163" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1164">
-      <c r="A1164" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1164" t="inlineStr">
-        <is>
-          <t>Foreign Bond InvestmentJAN</t>
-        </is>
-      </c>
-      <c r="C1164" t="inlineStr"/>
-      <c r="D1164" t="inlineStr">
-        <is>
-          <t>$-49.7B</t>
-        </is>
-      </c>
-      <c r="E1164" t="inlineStr"/>
-      <c r="F1164" t="inlineStr"/>
-      <c r="G1164" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1165">
-      <c r="A1165" t="inlineStr">
-        <is>
-          <t>01:30 AM</t>
-        </is>
-      </c>
-      <c r="B1165" t="inlineStr">
-        <is>
-          <t>Overall Net Capital FlowsJAN</t>
-        </is>
-      </c>
-      <c r="C1165" t="inlineStr"/>
-      <c r="D1165" t="inlineStr">
-        <is>
-          <t>$87.1B</t>
-        </is>
-      </c>
-      <c r="E1165" t="inlineStr"/>
-      <c r="F1165" t="inlineStr"/>
-      <c r="G1165" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1166">
-      <c r="A1166" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1166" t="inlineStr">
-        <is>
-          <t>Current AccountQ4</t>
-        </is>
-      </c>
-      <c r="C1166" t="inlineStr"/>
-      <c r="D1166" t="inlineStr">
-        <is>
-          <t>$-310.9B</t>
-        </is>
-      </c>
-      <c r="E1166" t="inlineStr"/>
-      <c r="F1166" t="inlineStr">
-        <is>
-          <t>$ -390.0B</t>
-        </is>
-      </c>
-      <c r="G1166" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1167">
-      <c r="A1167" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1167" t="inlineStr">
-        <is>
-          <t>Initial Jobless ClaimsMAR/15</t>
-        </is>
-      </c>
-      <c r="C1167" t="inlineStr"/>
-      <c r="D1167" t="inlineStr">
-        <is>
-          <t>220K</t>
-        </is>
-      </c>
-      <c r="E1167" t="inlineStr"/>
-      <c r="F1167" t="inlineStr">
-        <is>
-          <t>225.0K</t>
-        </is>
-      </c>
-      <c r="G1167" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1168">
-      <c r="A1168" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1168" t="inlineStr">
-        <is>
-          <t>Philadelphia Fed Manufacturing IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1168" t="inlineStr"/>
-      <c r="D1168" t="inlineStr">
-        <is>
-          <t>18.1</t>
-        </is>
-      </c>
-      <c r="E1168" t="inlineStr"/>
-      <c r="F1168" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G1168" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1169">
-      <c r="A1169" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1169" t="inlineStr">
-        <is>
-          <t>Continuing Jobless ClaimsMAR/08</t>
-        </is>
-      </c>
-      <c r="C1169" t="inlineStr"/>
-      <c r="D1169" t="inlineStr">
-        <is>
-          <t>1870K</t>
-        </is>
-      </c>
-      <c r="E1169" t="inlineStr"/>
-      <c r="F1169" t="inlineStr">
-        <is>
-          <t>1880.0K</t>
-        </is>
-      </c>
-      <c r="G1169" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1170">
-      <c r="A1170" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1170" t="inlineStr">
-        <is>
-          <t>Jobless Claims 4-week AverageMAR/15</t>
-        </is>
-      </c>
-      <c r="C1170" t="inlineStr"/>
-      <c r="D1170" t="inlineStr">
-        <is>
-          <t>226K</t>
-        </is>
-      </c>
-      <c r="E1170" t="inlineStr"/>
-      <c r="F1170" t="inlineStr">
-        <is>
-          <t>229.0K</t>
-        </is>
-      </c>
-      <c r="G1170" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1171">
-      <c r="A1171" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1171" t="inlineStr">
-        <is>
-          <t>Philly Fed Business ConditionsMAR</t>
-        </is>
-      </c>
-      <c r="C1171" t="inlineStr"/>
-      <c r="D1171" t="inlineStr">
-        <is>
-          <t>27.8</t>
-        </is>
-      </c>
-      <c r="E1171" t="inlineStr"/>
-      <c r="F1171" t="inlineStr"/>
-      <c r="G1171" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1172">
-      <c r="A1172" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1172" t="inlineStr">
-        <is>
-          <t>Philly Fed CAPEX IndexMAR</t>
-        </is>
-      </c>
-      <c r="C1172" t="inlineStr"/>
-      <c r="D1172" t="inlineStr">
-        <is>
-          <t>14.00</t>
-        </is>
-      </c>
-      <c r="E1172" t="inlineStr"/>
-      <c r="F1172" t="inlineStr"/>
-      <c r="G1172" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1173">
-      <c r="A1173" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1173" t="inlineStr">
-        <is>
-          <t>Philly Fed EmploymentMAR</t>
-        </is>
-      </c>
-      <c r="C1173" t="inlineStr"/>
-      <c r="D1173" t="inlineStr">
-        <is>
-          <t>5.3</t>
-        </is>
-      </c>
-      <c r="E1173" t="inlineStr"/>
-      <c r="F1173" t="inlineStr"/>
-      <c r="G1173" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1174">
-      <c r="A1174" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1174" t="inlineStr">
-        <is>
-          <t>Philly Fed New OrdersMAR</t>
-        </is>
-      </c>
-      <c r="C1174" t="inlineStr"/>
-      <c r="D1174" t="inlineStr">
-        <is>
-          <t>21.9</t>
-        </is>
-      </c>
-      <c r="E1174" t="inlineStr"/>
-      <c r="F1174" t="inlineStr"/>
-      <c r="G1174" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1175">
-      <c r="A1175" t="inlineStr">
-        <is>
-          <t>06:00 PM</t>
-        </is>
-      </c>
-      <c r="B1175" t="inlineStr">
-        <is>
-          <t>Philly Fed Prices PaidMAR</t>
-        </is>
-      </c>
-      <c r="C1175" t="inlineStr"/>
-      <c r="D1175" t="inlineStr">
-        <is>
-          <t>40.50</t>
-        </is>
-      </c>
-      <c r="E1175" t="inlineStr"/>
-      <c r="F1175" t="inlineStr"/>
-      <c r="G1175" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1176">
-      <c r="A1176" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1176" t="inlineStr">
-        <is>
-          <t>Existing Home SalesFEB</t>
-        </is>
-      </c>
-      <c r="C1176" t="inlineStr"/>
-      <c r="D1176" t="inlineStr">
-        <is>
-          <t>4.08M</t>
-        </is>
-      </c>
-      <c r="E1176" t="inlineStr"/>
-      <c r="F1176" t="inlineStr">
-        <is>
-          <t>4.05M</t>
-        </is>
-      </c>
-      <c r="G1176" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="1177">
-      <c r="A1177" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1177" t="inlineStr">
-        <is>
-          <t>Existing Home Sales MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1177" t="inlineStr"/>
-      <c r="D1177" t="inlineStr">
-        <is>
-          <t>-4.9%</t>
-        </is>
-      </c>
-      <c r="E1177" t="inlineStr"/>
-      <c r="F1177" t="inlineStr">
-        <is>
-          <t>-0.7%</t>
-        </is>
-      </c>
-      <c r="G1177" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="1178">
-      <c r="A1178" t="inlineStr">
-        <is>
-          <t>07:30 PM</t>
-        </is>
-      </c>
-      <c r="B1178" t="inlineStr">
-        <is>
-          <t>CB Leading Index MoMFEB</t>
-        </is>
-      </c>
-      <c r="C1178" t="inlineStr"/>
-      <c r="D1178" t="inlineStr">
-        <is>
-          <t>-0.3%</t>
-        </is>
-      </c>
-      <c r="E1178" t="inlineStr"/>
-      <c r="F1178" t="inlineStr">
-        <is>
-          <t>-0.2%</t>
-        </is>
-      </c>
-      <c r="G1178" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1179">
-      <c r="A1179" t="inlineStr">
-        <is>
-          <t>08:00 PM</t>
-        </is>
-      </c>
-      <c r="B1179" t="inlineStr">
-        <is>
-          <t>EIA Natural Gas Stocks ChangeMAR/14</t>
-        </is>
-      </c>
-      <c r="C1179" t="inlineStr"/>
-      <c r="D1179" t="inlineStr">
-        <is>
-          <t>-62Bcf</t>
-        </is>
-      </c>
-      <c r="E1179" t="inlineStr"/>
-      <c r="F1179" t="inlineStr"/>
-      <c r="G1179" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1180">
-      <c r="A1180" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1180" t="inlineStr">
-        <is>
-          <t>4-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1180" t="inlineStr"/>
-      <c r="D1180" t="inlineStr">
-        <is>
-          <t>4.225%</t>
-        </is>
-      </c>
-      <c r="E1180" t="inlineStr"/>
-      <c r="F1180" t="inlineStr"/>
-      <c r="G1180" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1181">
-      <c r="A1181" t="inlineStr">
-        <is>
-          <t>09:00 PM</t>
-        </is>
-      </c>
-      <c r="B1181" t="inlineStr">
-        <is>
-          <t>8-Week Bill Auction</t>
-        </is>
-      </c>
-      <c r="C1181" t="inlineStr"/>
-      <c r="D1181" t="inlineStr">
-        <is>
-          <t>4.220%</t>
-        </is>
-      </c>
-      <c r="E1181" t="inlineStr"/>
-      <c r="F1181" t="inlineStr"/>
-      <c r="G1181" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1182">
-      <c r="A1182" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1182" t="inlineStr">
-        <is>
-          <t>15-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1182" t="inlineStr"/>
-      <c r="D1182" t="inlineStr">
-        <is>
-          <t>5.8%</t>
-        </is>
-      </c>
-      <c r="E1182" t="inlineStr"/>
-      <c r="F1182" t="inlineStr"/>
-      <c r="G1182" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1183">
-      <c r="A1183" t="inlineStr">
-        <is>
-          <t>09:30 PM</t>
-        </is>
-      </c>
-      <c r="B1183" t="inlineStr">
-        <is>
-          <t>30-Year Mortgage RateMAR/20</t>
-        </is>
-      </c>
-      <c r="C1183" t="inlineStr"/>
-      <c r="D1183" t="inlineStr">
-        <is>
-          <t>6.65%</t>
-        </is>
-      </c>
-      <c r="E1183" t="inlineStr"/>
-      <c r="F1183" t="inlineStr"/>
-      <c r="G1183" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1184">
-      <c r="A1184" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1184" t="inlineStr">
-        <is>
-          <t>10-Year TIPS Auction</t>
-        </is>
-      </c>
-      <c r="C1184" t="inlineStr"/>
-      <c r="D1184" t="inlineStr">
-        <is>
-          <t>2.243%</t>
-        </is>
-      </c>
-      <c r="E1184" t="inlineStr"/>
-      <c r="F1184" t="inlineStr"/>
-      <c r="G1184" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1185">
-      <c r="A1185" t="inlineStr">
-        <is>
-          <t>Friday March 21 2025</t>
-        </is>
-      </c>
-      <c r="B1185" t="inlineStr"/>
-      <c r="C1185" t="inlineStr"/>
-      <c r="D1185" t="inlineStr"/>
-      <c r="E1185" t="inlineStr"/>
-      <c r="F1185" t="inlineStr"/>
-      <c r="G1185" t="inlineStr"/>
-    </row>
-    <row r="1186">
-      <c r="A1186" t="inlineStr">
-        <is>
-          <t>02:00 AM</t>
-        </is>
-      </c>
-      <c r="B1186" t="inlineStr">
-        <is>
-          <t>Fed Balance SheetMAR/19</t>
-        </is>
-      </c>
-      <c r="C1186" t="inlineStr"/>
-      <c r="D1186" t="inlineStr"/>
-      <c r="E1186" t="inlineStr"/>
-      <c r="F1186" t="inlineStr"/>
-      <c r="G1186" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1187">
-      <c r="A1187" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1187" t="inlineStr">
-        <is>
-          <t>Baker Hughes Oil Rig CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1187" t="inlineStr"/>
-      <c r="D1187" t="inlineStr"/>
-      <c r="E1187" t="inlineStr"/>
-      <c r="F1187" t="inlineStr"/>
-      <c r="G1187" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1188">
-      <c r="A1188" t="inlineStr">
-        <is>
-          <t>10:30 PM</t>
-        </is>
-      </c>
-      <c r="B1188" t="inlineStr">
-        <is>
-          <t>Baker Hughes Total Rigs CountMAR/21</t>
-        </is>
-      </c>
-      <c r="C1188" t="inlineStr"/>
-      <c r="D1188" t="inlineStr"/>
-      <c r="E1188" t="inlineStr"/>
-      <c r="F1188" t="inlineStr"/>
-      <c r="G1188" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="1189">
-      <c r="A1189" t="inlineStr">
-        <is>
-          <t>Saturday March 22 2025</t>
-        </is>
-      </c>
-      <c r="B1189" t="inlineStr"/>
-      <c r="C1189" t="inlineStr"/>
-      <c r="D1189" t="inlineStr"/>
-      <c r="E1189" t="inlineStr"/>
-      <c r="F1189" t="inlineStr"/>
-      <c r="G1189" t="inlineStr"/>
+      <c r="G1140" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
